--- a/Presentation/Presentation .xlsx
+++ b/Presentation/Presentation .xlsx
@@ -8,32 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drebi\dev\FA542Project\Presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F44EA6-8B95-4AAE-A744-5BF79795E3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDDFA2A-16CB-4175-8F6F-C47B8771A7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45270" yWindow="3285" windowWidth="25980" windowHeight="16290" xr2:uid="{8B52870B-B0A7-4554-8EAE-706194D00FD1}"/>
+    <workbookView xWindow="30150" yWindow="3525" windowWidth="25980" windowHeight="16290" xr2:uid="{8B52870B-B0A7-4554-8EAE-706194D00FD1}"/>
   </bookViews>
   <sheets>
-    <sheet name="AIC Plot NVIDIA" sheetId="19" r:id="rId1"/>
-    <sheet name="ADF Test" sheetId="18" r:id="rId2"/>
-    <sheet name="log_returns_nvda_qcom" sheetId="17" r:id="rId3"/>
-    <sheet name="ACF_PACF_QCOM" sheetId="16" r:id="rId4"/>
-    <sheet name="ACF_PACF_NVDA" sheetId="15" r:id="rId5"/>
-    <sheet name="EACF Plot QCOM" sheetId="14" r:id="rId6"/>
-    <sheet name="Ljung Box Test" sheetId="11" r:id="rId7"/>
-    <sheet name="ACF White Noise" sheetId="10" r:id="rId8"/>
-    <sheet name="EACF Plot NVIDIA" sheetId="13" r:id="rId9"/>
-    <sheet name="histogram returns" sheetId="9" r:id="rId10"/>
-    <sheet name="Comps Overview (6)" sheetId="8" r:id="rId11"/>
-    <sheet name="Comps Overview (5)" sheetId="7" r:id="rId12"/>
-    <sheet name="Comps Overview (4)" sheetId="6" r:id="rId13"/>
-    <sheet name="Comps Overview" sheetId="2" r:id="rId14"/>
-    <sheet name="Comps Overview (2)" sheetId="3" r:id="rId15"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId16"/>
-    <sheet name="Comps Overview (3)" sheetId="4" r:id="rId17"/>
+    <sheet name="forecast" sheetId="21" r:id="rId1"/>
+    <sheet name="AIC Plot QCOM" sheetId="20" r:id="rId2"/>
+    <sheet name="AIC Plot NVIDIA" sheetId="19" r:id="rId3"/>
+    <sheet name="ADF Test" sheetId="18" r:id="rId4"/>
+    <sheet name="log_returns_nvda_qcom" sheetId="17" r:id="rId5"/>
+    <sheet name="ACF_PACF_QCOM" sheetId="16" r:id="rId6"/>
+    <sheet name="ACF_PACF_NVDA" sheetId="15" r:id="rId7"/>
+    <sheet name="EACF Plot QCOM" sheetId="14" r:id="rId8"/>
+    <sheet name="Ljung Box Test" sheetId="11" r:id="rId9"/>
+    <sheet name="ACF White Noise" sheetId="10" r:id="rId10"/>
+    <sheet name="EACF Plot NVIDIA" sheetId="13" r:id="rId11"/>
+    <sheet name="histogram returns" sheetId="9" r:id="rId12"/>
+    <sheet name="Comps Overview (6)" sheetId="8" r:id="rId13"/>
+    <sheet name="Comps Overview (5)" sheetId="7" r:id="rId14"/>
+    <sheet name="Comps Overview (4)" sheetId="6" r:id="rId15"/>
+    <sheet name="Comps Overview" sheetId="2" r:id="rId16"/>
+    <sheet name="Comps Overview (2)" sheetId="3" r:id="rId17"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId18"/>
+    <sheet name="Comps Overview (3)" sheetId="4" r:id="rId19"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId18"/>
-    <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
   </externalReferences>
   <definedNames>
     <definedName name="Company_Name">[1]Inputs!$H$4</definedName>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="123">
   <si>
     <t>52 Week High</t>
   </si>
@@ -419,6 +421,15 @@
   </si>
   <si>
     <t>Time Series is Stationary</t>
+  </si>
+  <si>
+    <t>AIC Plot for the Theoretical EACF for Nvidia ARIMA Model</t>
+  </si>
+  <si>
+    <t>AIC Plot for the Theoretical EACF for Qualcomm ARIMA Model</t>
+  </si>
+  <si>
+    <t>Forecast of Nvidia ARIMA(1,1,2) for T+10</t>
   </si>
 </sst>
 </file>
@@ -1146,6 +1157,168 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEE44E2A-43F2-47D0-A1FA-85AFF0A8CA0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5562600" y="6381750"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{414088C4-2BDC-4BD5-A2AE-E43FBBA893A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3114675" y="1238250"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>117230</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>36634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>608133</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>89438</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75E70C69-3653-84D6-DB59-47EED3CB0D9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="117230" y="857249"/>
+          <a:ext cx="7392865" cy="3327939"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
@@ -1286,7 +1459,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1448,7 +1621,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1610,7 +1783,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1772,7 +1945,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1934,7 +2107,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2096,7 +2269,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2582,7 +2755,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -19558,11 +19731,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D2ABA9-ECEB-46F0-8E3A-A3E858B7AB04}">
-  <dimension ref="A1:P149"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0DCC55-B550-4B40-8509-FDB2198B0B8E}">
+  <dimension ref="A2:K5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="2" max="2" width="0.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="0.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+    </row>
+    <row r="5" spans="1:11" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A8F1BD-CFB8-4CA7-B34E-309ED40F48C0}">
+  <dimension ref="A2:K5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="2" max="2" width="0.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="0.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+    </row>
+    <row r="5" spans="1:11" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C36FB67-9F8C-42D2-AA9F-01863EB0DC79}">
+  <dimension ref="A1:P18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19695,29 +19978,23 @@
       <c r="E8" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="14">
-        <f>O29</f>
-        <v>-18654.55</v>
-      </c>
-      <c r="G8" s="101">
-        <f>O40</f>
-        <v>-18658.14</v>
-      </c>
-      <c r="H8" s="100">
-        <f>O51</f>
-        <v>-18657.63</v>
-      </c>
-      <c r="I8" s="100">
-        <f>O62</f>
-        <v>-18655.86</v>
-      </c>
-      <c r="J8" s="100">
-        <f>O73</f>
-        <v>-18654.439999999999</v>
-      </c>
-      <c r="K8" s="100">
-        <f>O84</f>
-        <v>-18652.55</v>
+      <c r="F8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="101" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="100" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="100" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" s="100" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" s="100" t="s">
+        <v>104</v>
       </c>
       <c r="L8" s="100" t="s">
         <v>104</v>
@@ -19739,29 +20016,23 @@
       <c r="E9" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="14">
-        <f t="shared" ref="F9:F15" si="0">O30</f>
-        <v>-18658.330000000002</v>
-      </c>
-      <c r="G9" s="95">
-        <f t="shared" ref="G9:G15" si="1">O41</f>
-        <v>-18657.009999999998</v>
-      </c>
-      <c r="H9" s="14">
-        <f t="shared" ref="H9:H15" si="2">O52</f>
-        <v>-18655.61</v>
-      </c>
-      <c r="I9" s="14">
-        <f t="shared" ref="I9:I15" si="3">O63</f>
-        <v>-18653.87</v>
-      </c>
-      <c r="J9" s="14">
-        <f t="shared" ref="J9:J15" si="4">O74</f>
-        <v>-18652.45</v>
-      </c>
-      <c r="K9" s="14">
-        <f t="shared" ref="K9:K15" si="5">O85</f>
-        <v>-18650.55</v>
+      <c r="F9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="95" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="L9" s="14" t="s">
         <v>104</v>
@@ -19783,29 +20054,23 @@
       <c r="E10" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="14">
-        <f t="shared" si="0"/>
-        <v>-18657.509999999998</v>
-      </c>
-      <c r="G10" s="14">
-        <f t="shared" si="1"/>
-        <v>-18655.53</v>
-      </c>
-      <c r="H10" s="95">
-        <f t="shared" si="2"/>
-        <v>-18654.2</v>
-      </c>
-      <c r="I10" s="14">
-        <f t="shared" si="3"/>
-        <v>-18651.86</v>
-      </c>
-      <c r="J10" s="14">
-        <f t="shared" si="4"/>
-        <v>-18652.45</v>
-      </c>
-      <c r="K10" s="14">
-        <f t="shared" si="5"/>
-        <v>-18650.66</v>
+      <c r="F10" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="95" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="L10" s="14" t="s">
         <v>104</v>
@@ -19827,29 +20092,23 @@
       <c r="E11" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="14">
-        <f t="shared" si="0"/>
-        <v>-18655.900000000001</v>
-      </c>
-      <c r="G11" s="14">
-        <f t="shared" si="1"/>
-        <v>-18653.88</v>
-      </c>
-      <c r="H11" s="14">
-        <f t="shared" si="2"/>
-        <v>-18651.89</v>
-      </c>
-      <c r="I11" s="95">
-        <f t="shared" si="3"/>
-        <v>-18672.45</v>
-      </c>
-      <c r="J11" s="14">
-        <f t="shared" si="4"/>
-        <v>-18650.48</v>
-      </c>
-      <c r="K11" s="14">
-        <f t="shared" si="5"/>
-        <v>-18648.740000000002</v>
+      <c r="F11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="95" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="L11" s="14" t="s">
         <v>104</v>
@@ -19871,29 +20130,23 @@
       <c r="E12" s="94" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="14">
-        <f t="shared" si="0"/>
-        <v>-18654.38</v>
-      </c>
-      <c r="G12" s="14">
-        <f t="shared" si="1"/>
-        <v>-18652.38</v>
-      </c>
-      <c r="H12" s="14">
-        <f t="shared" si="2"/>
-        <v>-18650.37</v>
-      </c>
-      <c r="I12" s="14">
-        <f t="shared" si="3"/>
-        <v>-18650.36</v>
-      </c>
-      <c r="J12" s="95">
-        <f t="shared" si="4"/>
-        <v>-18658.080000000002</v>
-      </c>
-      <c r="K12" s="14">
-        <f t="shared" si="5"/>
-        <v>-18647.45</v>
+      <c r="F12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" s="95" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="L12" s="14" t="s">
         <v>104</v>
@@ -19915,29 +20168,23 @@
       <c r="E13" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="14">
-        <f t="shared" si="0"/>
-        <v>-18652.439999999999</v>
-      </c>
-      <c r="G13" s="14">
-        <f t="shared" si="1"/>
-        <v>-18650.43</v>
-      </c>
-      <c r="H13" s="14">
-        <f t="shared" si="2"/>
-        <v>-18650.919999999998</v>
-      </c>
-      <c r="I13" s="14">
-        <f t="shared" si="3"/>
-        <v>-18661.189999999999</v>
-      </c>
-      <c r="J13" s="14">
-        <f t="shared" si="4"/>
-        <v>-18647.689999999999</v>
-      </c>
-      <c r="K13" s="95">
-        <f t="shared" si="5"/>
-        <v>-18659.71</v>
+      <c r="F13" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" s="95" t="s">
+        <v>104</v>
       </c>
       <c r="L13" s="14" t="s">
         <v>104</v>
@@ -19959,29 +20206,23 @@
       <c r="E14" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="14">
-        <f t="shared" si="0"/>
-        <v>-18650.48</v>
-      </c>
-      <c r="G14" s="14">
-        <f t="shared" si="1"/>
-        <v>-18648.47</v>
-      </c>
-      <c r="H14" s="14">
-        <f t="shared" si="2"/>
-        <v>-18646.45</v>
-      </c>
-      <c r="I14" s="14">
-        <f t="shared" si="3"/>
-        <v>-18646.96</v>
-      </c>
-      <c r="J14" s="14">
-        <f t="shared" si="4"/>
-        <v>-18645.689999999999</v>
-      </c>
-      <c r="K14" s="14">
-        <f t="shared" si="5"/>
-        <v>-18660.43</v>
+      <c r="F14" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="L14" s="95" t="s">
         <v>104</v>
@@ -20003,29 +20244,23 @@
       <c r="E15" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="14">
-        <f t="shared" si="0"/>
-        <v>-18652.41</v>
-      </c>
-      <c r="G15" s="14">
-        <f t="shared" si="1"/>
-        <v>-18657.41</v>
-      </c>
-      <c r="H15" s="14">
-        <f t="shared" si="2"/>
-        <v>-18661.560000000001</v>
-      </c>
-      <c r="I15" s="14">
-        <f t="shared" si="3"/>
-        <v>-18665.259999999998</v>
-      </c>
-      <c r="J15" s="14">
-        <f t="shared" si="4"/>
-        <v>-18663.849999999999</v>
-      </c>
-      <c r="K15" s="14">
-        <f t="shared" si="5"/>
-        <v>-18665.59</v>
+      <c r="F15" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="L15" s="14" t="s">
         <v>103</v>
@@ -20060,1707 +20295,13 @@
       <c r="P17" s="27"/>
     </row>
     <row r="18" spans="4:16" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L29" s="89">
-        <v>86</v>
-      </c>
-      <c r="M29" s="90">
-        <v>0</v>
-      </c>
-      <c r="N29" s="90">
-        <v>0</v>
-      </c>
-      <c r="O29" s="90">
-        <v>-18654.55</v>
-      </c>
-    </row>
-    <row r="30" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L30" s="89">
-        <v>69</v>
-      </c>
-      <c r="M30" s="90">
-        <v>1</v>
-      </c>
-      <c r="N30" s="90">
-        <v>0</v>
-      </c>
-      <c r="O30" s="90">
-        <v>-18658.330000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L31" s="89">
-        <v>75</v>
-      </c>
-      <c r="M31" s="90">
-        <v>2</v>
-      </c>
-      <c r="N31" s="90">
-        <v>0</v>
-      </c>
-      <c r="O31" s="90">
-        <v>-18657.509999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L32" s="89">
-        <v>81</v>
-      </c>
-      <c r="M32" s="90">
-        <v>3</v>
-      </c>
-      <c r="N32" s="90">
-        <v>0</v>
-      </c>
-      <c r="O32" s="90">
-        <v>-18655.900000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L33" s="89">
-        <v>88</v>
-      </c>
-      <c r="M33" s="90">
-        <v>4</v>
-      </c>
-      <c r="N33" s="90">
-        <v>0</v>
-      </c>
-      <c r="O33" s="90">
-        <v>-18654.38</v>
-      </c>
-    </row>
-    <row r="34" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L34" s="89">
-        <v>95</v>
-      </c>
-      <c r="M34" s="90">
-        <v>5</v>
-      </c>
-      <c r="N34" s="90">
-        <v>0</v>
-      </c>
-      <c r="O34" s="90">
-        <v>-18652.439999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L35" s="89">
-        <v>106</v>
-      </c>
-      <c r="M35" s="90">
-        <v>6</v>
-      </c>
-      <c r="N35" s="90">
-        <v>0</v>
-      </c>
-      <c r="O35" s="90">
-        <v>-18650.48</v>
-      </c>
-    </row>
-    <row r="36" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L36" s="89">
-        <v>96</v>
-      </c>
-      <c r="M36" s="90">
-        <v>7</v>
-      </c>
-      <c r="N36" s="90">
-        <v>0</v>
-      </c>
-      <c r="O36" s="90">
-        <v>-18652.41</v>
-      </c>
-    </row>
-    <row r="37" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L37" s="89">
-        <v>47</v>
-      </c>
-      <c r="M37" s="90">
-        <v>8</v>
-      </c>
-      <c r="N37" s="90">
-        <v>0</v>
-      </c>
-      <c r="O37" s="90">
-        <v>-18662.43</v>
-      </c>
-    </row>
-    <row r="38" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L38" s="89">
-        <v>45</v>
-      </c>
-      <c r="M38" s="90">
-        <v>9</v>
-      </c>
-      <c r="N38" s="90">
-        <v>0</v>
-      </c>
-      <c r="O38" s="90">
-        <v>-18662.72</v>
-      </c>
-    </row>
-    <row r="39" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L39" s="89">
-        <v>46</v>
-      </c>
-      <c r="M39" s="90">
-        <v>10</v>
-      </c>
-      <c r="N39" s="90">
-        <v>0</v>
-      </c>
-      <c r="O39" s="90">
-        <v>-18662.68</v>
-      </c>
-    </row>
-    <row r="40" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L40" s="89">
-        <v>70</v>
-      </c>
-      <c r="M40" s="90">
-        <v>0</v>
-      </c>
-      <c r="N40" s="90">
-        <v>1</v>
-      </c>
-      <c r="O40" s="90">
-        <v>-18658.14</v>
-      </c>
-    </row>
-    <row r="41" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L41" s="89">
-        <v>79</v>
-      </c>
-      <c r="M41" s="90">
-        <v>1</v>
-      </c>
-      <c r="N41" s="90">
-        <v>1</v>
-      </c>
-      <c r="O41" s="90">
-        <v>-18657.009999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L42" s="89">
-        <v>84</v>
-      </c>
-      <c r="M42" s="90">
-        <v>2</v>
-      </c>
-      <c r="N42" s="90">
-        <v>1</v>
-      </c>
-      <c r="O42" s="90">
-        <v>-18655.53</v>
-      </c>
-    </row>
-    <row r="43" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L43" s="89">
-        <v>90</v>
-      </c>
-      <c r="M43" s="90">
-        <v>3</v>
-      </c>
-      <c r="N43" s="90">
-        <v>1</v>
-      </c>
-      <c r="O43" s="90">
-        <v>-18653.88</v>
-      </c>
-    </row>
-    <row r="44" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L44" s="89">
-        <v>97</v>
-      </c>
-      <c r="M44" s="90">
-        <v>4</v>
-      </c>
-      <c r="N44" s="90">
-        <v>1</v>
-      </c>
-      <c r="O44" s="90">
-        <v>-18652.38</v>
-      </c>
-    </row>
-    <row r="45" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L45" s="89">
-        <v>108</v>
-      </c>
-      <c r="M45" s="90">
-        <v>5</v>
-      </c>
-      <c r="N45" s="90">
-        <v>1</v>
-      </c>
-      <c r="O45" s="90">
-        <v>-18650.43</v>
-      </c>
-    </row>
-    <row r="46" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L46" s="89">
-        <v>114</v>
-      </c>
-      <c r="M46" s="90">
-        <v>6</v>
-      </c>
-      <c r="N46" s="90">
-        <v>1</v>
-      </c>
-      <c r="O46" s="90">
-        <v>-18648.47</v>
-      </c>
-    </row>
-    <row r="47" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L47" s="89">
-        <v>76</v>
-      </c>
-      <c r="M47" s="90">
-        <v>7</v>
-      </c>
-      <c r="N47" s="90">
-        <v>1</v>
-      </c>
-      <c r="O47" s="90">
-        <v>-18657.41</v>
-      </c>
-    </row>
-    <row r="48" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L48" s="89">
-        <v>50</v>
-      </c>
-      <c r="M48" s="90">
-        <v>8</v>
-      </c>
-      <c r="N48" s="90">
-        <v>1</v>
-      </c>
-      <c r="O48" s="90">
-        <v>-18661.59</v>
-      </c>
-    </row>
-    <row r="49" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L49" s="89">
-        <v>49</v>
-      </c>
-      <c r="M49" s="90">
-        <v>9</v>
-      </c>
-      <c r="N49" s="90">
-        <v>1</v>
-      </c>
-      <c r="O49" s="90">
-        <v>-18661.77</v>
-      </c>
-    </row>
-    <row r="50" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L50" s="89">
-        <v>36</v>
-      </c>
-      <c r="M50" s="90">
-        <v>10</v>
-      </c>
-      <c r="N50" s="90">
-        <v>1</v>
-      </c>
-      <c r="O50" s="90">
-        <v>-18665.310000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L51" s="89">
-        <v>74</v>
-      </c>
-      <c r="M51" s="90">
-        <v>0</v>
-      </c>
-      <c r="N51" s="90">
-        <v>2</v>
-      </c>
-      <c r="O51" s="90">
-        <v>-18657.63</v>
-      </c>
-    </row>
-    <row r="52" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L52" s="89">
-        <v>83</v>
-      </c>
-      <c r="M52" s="90">
-        <v>1</v>
-      </c>
-      <c r="N52" s="90">
-        <v>2</v>
-      </c>
-      <c r="O52" s="90">
-        <v>-18655.61</v>
-      </c>
-    </row>
-    <row r="53" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L53" s="89">
-        <v>89</v>
-      </c>
-      <c r="M53" s="90">
-        <v>2</v>
-      </c>
-      <c r="N53" s="90">
-        <v>2</v>
-      </c>
-      <c r="O53" s="90">
-        <v>-18654.2</v>
-      </c>
-    </row>
-    <row r="54" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L54" s="89">
-        <v>98</v>
-      </c>
-      <c r="M54" s="90">
-        <v>3</v>
-      </c>
-      <c r="N54" s="90">
-        <v>2</v>
-      </c>
-      <c r="O54" s="90">
-        <v>-18651.89</v>
-      </c>
-    </row>
-    <row r="55" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L55" s="89">
-        <v>109</v>
-      </c>
-      <c r="M55" s="90">
-        <v>4</v>
-      </c>
-      <c r="N55" s="90">
-        <v>2</v>
-      </c>
-      <c r="O55" s="90">
-        <v>-18650.37</v>
-      </c>
-    </row>
-    <row r="56" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L56" s="89">
-        <v>102</v>
-      </c>
-      <c r="M56" s="90">
-        <v>5</v>
-      </c>
-      <c r="N56" s="90">
-        <v>2</v>
-      </c>
-      <c r="O56" s="90">
-        <v>-18650.919999999998</v>
-      </c>
-    </row>
-    <row r="57" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L57" s="89">
-        <v>118</v>
-      </c>
-      <c r="M57" s="90">
-        <v>6</v>
-      </c>
-      <c r="N57" s="90">
-        <v>2</v>
-      </c>
-      <c r="O57" s="90">
-        <v>-18646.45</v>
-      </c>
-    </row>
-    <row r="58" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L58" s="89">
-        <v>51</v>
-      </c>
-      <c r="M58" s="90">
-        <v>7</v>
-      </c>
-      <c r="N58" s="90">
-        <v>2</v>
-      </c>
-      <c r="O58" s="90">
-        <v>-18661.560000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L59" s="89">
-        <v>40</v>
-      </c>
-      <c r="M59" s="90">
-        <v>8</v>
-      </c>
-      <c r="N59" s="90">
-        <v>2</v>
-      </c>
-      <c r="O59" s="90">
-        <v>-18663.939999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L60" s="89">
-        <v>59</v>
-      </c>
-      <c r="M60" s="90">
-        <v>9</v>
-      </c>
-      <c r="N60" s="90">
-        <v>2</v>
-      </c>
-      <c r="O60" s="90">
-        <v>-18660.009999999998</v>
-      </c>
-    </row>
-    <row r="61" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L61" s="89">
-        <v>44</v>
-      </c>
-      <c r="M61" s="90">
-        <v>10</v>
-      </c>
-      <c r="N61" s="90">
-        <v>2</v>
-      </c>
-      <c r="O61" s="90">
-        <v>-18663.03</v>
-      </c>
-    </row>
-    <row r="62" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L62" s="89">
-        <v>82</v>
-      </c>
-      <c r="M62" s="90">
-        <v>0</v>
-      </c>
-      <c r="N62" s="90">
-        <v>3</v>
-      </c>
-      <c r="O62" s="90">
-        <v>-18655.86</v>
-      </c>
-    </row>
-    <row r="63" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L63" s="89">
-        <v>91</v>
-      </c>
-      <c r="M63" s="90">
-        <v>1</v>
-      </c>
-      <c r="N63" s="90">
-        <v>3</v>
-      </c>
-      <c r="O63" s="90">
-        <v>-18653.87</v>
-      </c>
-    </row>
-    <row r="64" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L64" s="89">
-        <v>99</v>
-      </c>
-      <c r="M64" s="90">
-        <v>2</v>
-      </c>
-      <c r="N64" s="90">
-        <v>3</v>
-      </c>
-      <c r="O64" s="90">
-        <v>-18651.86</v>
-      </c>
-    </row>
-    <row r="65" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L65" s="89">
-        <v>22</v>
-      </c>
-      <c r="M65" s="90">
-        <v>3</v>
-      </c>
-      <c r="N65" s="90">
-        <v>3</v>
-      </c>
-      <c r="O65" s="90">
-        <v>-18672.45</v>
-      </c>
-    </row>
-    <row r="66" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L66" s="89">
-        <v>110</v>
-      </c>
-      <c r="M66" s="90">
-        <v>4</v>
-      </c>
-      <c r="N66" s="90">
-        <v>3</v>
-      </c>
-      <c r="O66" s="90">
-        <v>-18650.36</v>
-      </c>
-    </row>
-    <row r="67" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L67" s="89">
-        <v>52</v>
-      </c>
-      <c r="M67" s="90">
-        <v>5</v>
-      </c>
-      <c r="N67" s="90">
-        <v>3</v>
-      </c>
-      <c r="O67" s="90">
-        <v>-18661.189999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L68" s="89">
-        <v>117</v>
-      </c>
-      <c r="M68" s="90">
-        <v>6</v>
-      </c>
-      <c r="N68" s="90">
-        <v>3</v>
-      </c>
-      <c r="O68" s="90">
-        <v>-18646.96</v>
-      </c>
-    </row>
-    <row r="69" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L69" s="89">
-        <v>37</v>
-      </c>
-      <c r="M69" s="90">
-        <v>7</v>
-      </c>
-      <c r="N69" s="90">
-        <v>3</v>
-      </c>
-      <c r="O69" s="90">
-        <v>-18665.259999999998</v>
-      </c>
-    </row>
-    <row r="70" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L70" s="89">
-        <v>35</v>
-      </c>
-      <c r="M70" s="90">
-        <v>8</v>
-      </c>
-      <c r="N70" s="90">
-        <v>3</v>
-      </c>
-      <c r="O70" s="90">
-        <v>-18665.46</v>
-      </c>
-    </row>
-    <row r="71" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L71" s="89">
-        <v>54</v>
-      </c>
-      <c r="M71" s="90">
-        <v>9</v>
-      </c>
-      <c r="N71" s="90">
-        <v>3</v>
-      </c>
-      <c r="O71" s="90">
-        <v>-18660.88</v>
-      </c>
-    </row>
-    <row r="72" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L72" s="89">
-        <v>77</v>
-      </c>
-      <c r="M72" s="90">
-        <v>10</v>
-      </c>
-      <c r="N72" s="90">
-        <v>3</v>
-      </c>
-      <c r="O72" s="90">
-        <v>-18657.21</v>
-      </c>
-    </row>
-    <row r="73" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L73" s="89">
-        <v>87</v>
-      </c>
-      <c r="M73" s="90">
-        <v>0</v>
-      </c>
-      <c r="N73" s="90">
-        <v>4</v>
-      </c>
-      <c r="O73" s="90">
-        <v>-18654.439999999999</v>
-      </c>
-    </row>
-    <row r="74" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L74" s="89">
-        <v>93</v>
-      </c>
-      <c r="M74" s="90">
-        <v>1</v>
-      </c>
-      <c r="N74" s="90">
-        <v>4</v>
-      </c>
-      <c r="O74" s="90">
-        <v>-18652.45</v>
-      </c>
-    </row>
-    <row r="75" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L75" s="89">
-        <v>94</v>
-      </c>
-      <c r="M75" s="90">
-        <v>2</v>
-      </c>
-      <c r="N75" s="90">
-        <v>4</v>
-      </c>
-      <c r="O75" s="90">
-        <v>-18652.45</v>
-      </c>
-    </row>
-    <row r="76" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L76" s="89">
-        <v>107</v>
-      </c>
-      <c r="M76" s="90">
-        <v>3</v>
-      </c>
-      <c r="N76" s="90">
-        <v>4</v>
-      </c>
-      <c r="O76" s="90">
-        <v>-18650.48</v>
-      </c>
-    </row>
-    <row r="77" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L77" s="89">
-        <v>71</v>
-      </c>
-      <c r="M77" s="90">
-        <v>4</v>
-      </c>
-      <c r="N77" s="90">
-        <v>4</v>
-      </c>
-      <c r="O77" s="90">
-        <v>-18658.080000000002</v>
-      </c>
-    </row>
-    <row r="78" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L78" s="89">
-        <v>115</v>
-      </c>
-      <c r="M78" s="90">
-        <v>5</v>
-      </c>
-      <c r="N78" s="90">
-        <v>4</v>
-      </c>
-      <c r="O78" s="90">
-        <v>-18647.689999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L79" s="89">
-        <v>119</v>
-      </c>
-      <c r="M79" s="90">
-        <v>6</v>
-      </c>
-      <c r="N79" s="90">
-        <v>4</v>
-      </c>
-      <c r="O79" s="90">
-        <v>-18645.689999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L80" s="89">
-        <v>41</v>
-      </c>
-      <c r="M80" s="90">
-        <v>7</v>
-      </c>
-      <c r="N80" s="90">
-        <v>4</v>
-      </c>
-      <c r="O80" s="90">
-        <v>-18663.849999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L81" s="89">
-        <v>48</v>
-      </c>
-      <c r="M81" s="90">
-        <v>8</v>
-      </c>
-      <c r="N81" s="90">
-        <v>4</v>
-      </c>
-      <c r="O81" s="90">
-        <v>-18662.330000000002</v>
-      </c>
-    </row>
-    <row r="82" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L82" s="89">
-        <v>78</v>
-      </c>
-      <c r="M82" s="90">
-        <v>9</v>
-      </c>
-      <c r="N82" s="90">
-        <v>4</v>
-      </c>
-      <c r="O82" s="90">
-        <v>-18657.09</v>
-      </c>
-    </row>
-    <row r="83" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L83" s="89">
-        <v>30</v>
-      </c>
-      <c r="M83" s="90">
-        <v>10</v>
-      </c>
-      <c r="N83" s="90">
-        <v>4</v>
-      </c>
-      <c r="O83" s="90">
-        <v>-18669.2</v>
-      </c>
-    </row>
-    <row r="84" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L84" s="89">
-        <v>92</v>
-      </c>
-      <c r="M84" s="90">
-        <v>0</v>
-      </c>
-      <c r="N84" s="90">
-        <v>5</v>
-      </c>
-      <c r="O84" s="90">
-        <v>-18652.55</v>
-      </c>
-    </row>
-    <row r="85" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L85" s="89">
-        <v>104</v>
-      </c>
-      <c r="M85" s="90">
-        <v>1</v>
-      </c>
-      <c r="N85" s="90">
-        <v>5</v>
-      </c>
-      <c r="O85" s="90">
-        <v>-18650.55</v>
-      </c>
-    </row>
-    <row r="86" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L86" s="89">
-        <v>103</v>
-      </c>
-      <c r="M86" s="90">
-        <v>2</v>
-      </c>
-      <c r="N86" s="90">
-        <v>5</v>
-      </c>
-      <c r="O86" s="90">
-        <v>-18650.66</v>
-      </c>
-    </row>
-    <row r="87" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L87" s="89">
-        <v>112</v>
-      </c>
-      <c r="M87" s="90">
-        <v>3</v>
-      </c>
-      <c r="N87" s="90">
-        <v>5</v>
-      </c>
-      <c r="O87" s="90">
-        <v>-18648.740000000002</v>
-      </c>
-    </row>
-    <row r="88" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L88" s="89">
-        <v>116</v>
-      </c>
-      <c r="M88" s="90">
-        <v>4</v>
-      </c>
-      <c r="N88" s="90">
-        <v>5</v>
-      </c>
-      <c r="O88" s="90">
-        <v>-18647.45</v>
-      </c>
-    </row>
-    <row r="89" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L89" s="89">
-        <v>63</v>
-      </c>
-      <c r="M89" s="90">
-        <v>5</v>
-      </c>
-      <c r="N89" s="90">
-        <v>5</v>
-      </c>
-      <c r="O89" s="90">
-        <v>-18659.71</v>
-      </c>
-    </row>
-    <row r="90" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L90" s="89">
-        <v>56</v>
-      </c>
-      <c r="M90" s="90">
-        <v>6</v>
-      </c>
-      <c r="N90" s="90">
-        <v>5</v>
-      </c>
-      <c r="O90" s="90">
-        <v>-18660.43</v>
-      </c>
-    </row>
-    <row r="91" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L91" s="89">
-        <v>34</v>
-      </c>
-      <c r="M91" s="90">
-        <v>7</v>
-      </c>
-      <c r="N91" s="90">
-        <v>5</v>
-      </c>
-      <c r="O91" s="90">
-        <v>-18665.59</v>
-      </c>
-    </row>
-    <row r="92" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L92" s="89">
-        <v>31</v>
-      </c>
-      <c r="M92" s="90">
-        <v>8</v>
-      </c>
-      <c r="N92" s="90">
-        <v>5</v>
-      </c>
-      <c r="O92" s="90">
-        <v>-18668.86</v>
-      </c>
-    </row>
-    <row r="93" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L93" s="89">
-        <v>67</v>
-      </c>
-      <c r="M93" s="90">
-        <v>9</v>
-      </c>
-      <c r="N93" s="90">
-        <v>5</v>
-      </c>
-      <c r="O93" s="90">
-        <v>-18658.79</v>
-      </c>
-    </row>
-    <row r="94" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L94" s="89">
-        <v>18</v>
-      </c>
-      <c r="M94" s="90">
-        <v>10</v>
-      </c>
-      <c r="N94" s="90">
-        <v>5</v>
-      </c>
-      <c r="O94" s="90">
-        <v>-18673.54</v>
-      </c>
-    </row>
-    <row r="95" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L95" s="89">
-        <v>105</v>
-      </c>
-      <c r="M95" s="90">
-        <v>0</v>
-      </c>
-      <c r="N95" s="90">
-        <v>6</v>
-      </c>
-      <c r="O95" s="90">
-        <v>-18650.55</v>
-      </c>
-    </row>
-    <row r="96" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L96" s="89">
-        <v>113</v>
-      </c>
-      <c r="M96" s="90">
-        <v>1</v>
-      </c>
-      <c r="N96" s="90">
-        <v>6</v>
-      </c>
-      <c r="O96" s="90">
-        <v>-18648.55</v>
-      </c>
-    </row>
-    <row r="97" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L97" s="89">
-        <v>111</v>
-      </c>
-      <c r="M97" s="90">
-        <v>2</v>
-      </c>
-      <c r="N97" s="90">
-        <v>6</v>
-      </c>
-      <c r="O97" s="90">
-        <v>-18649.11</v>
-      </c>
-    </row>
-    <row r="98" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L98" s="89">
-        <v>100</v>
-      </c>
-      <c r="M98" s="90">
-        <v>3</v>
-      </c>
-      <c r="N98" s="90">
-        <v>6</v>
-      </c>
-      <c r="O98" s="90">
-        <v>-18651.61</v>
-      </c>
-    </row>
-    <row r="99" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L99" s="89">
-        <v>120</v>
-      </c>
-      <c r="M99" s="90">
-        <v>4</v>
-      </c>
-      <c r="N99" s="90">
-        <v>6</v>
-      </c>
-      <c r="O99" s="90">
-        <v>-18645.43</v>
-      </c>
-    </row>
-    <row r="100" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L100" s="89">
-        <v>57</v>
-      </c>
-      <c r="M100" s="90">
-        <v>5</v>
-      </c>
-      <c r="N100" s="90">
-        <v>6</v>
-      </c>
-      <c r="O100" s="90">
-        <v>-18660.39</v>
-      </c>
-    </row>
-    <row r="101" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L101" s="89">
-        <v>8</v>
-      </c>
-      <c r="M101" s="90">
-        <v>6</v>
-      </c>
-      <c r="N101" s="90">
-        <v>6</v>
-      </c>
-      <c r="O101" s="90">
-        <v>-18676.61</v>
-      </c>
-    </row>
-    <row r="102" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L102" s="89">
-        <v>13</v>
-      </c>
-      <c r="M102" s="90">
-        <v>7</v>
-      </c>
-      <c r="N102" s="90">
-        <v>6</v>
-      </c>
-      <c r="O102" s="90">
-        <v>-18675.27</v>
-      </c>
-    </row>
-    <row r="103" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L103" s="89">
-        <v>20</v>
-      </c>
-      <c r="M103" s="90">
-        <v>8</v>
-      </c>
-      <c r="N103" s="90">
-        <v>6</v>
-      </c>
-      <c r="O103" s="90">
-        <v>-18673.009999999998</v>
-      </c>
-    </row>
-    <row r="104" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L104" s="89">
-        <v>7</v>
-      </c>
-      <c r="M104" s="90">
-        <v>9</v>
-      </c>
-      <c r="N104" s="90">
-        <v>6</v>
-      </c>
-      <c r="O104" s="90">
-        <v>-18676.62</v>
-      </c>
-    </row>
-    <row r="105" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L105" s="89">
-        <v>3</v>
-      </c>
-      <c r="M105" s="90">
-        <v>10</v>
-      </c>
-      <c r="N105" s="90">
-        <v>6</v>
-      </c>
-      <c r="O105" s="90">
-        <v>-18678.22</v>
-      </c>
-    </row>
-    <row r="106" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L106" s="89">
-        <v>101</v>
-      </c>
-      <c r="M106" s="90">
-        <v>0</v>
-      </c>
-      <c r="N106" s="90">
-        <v>7</v>
-      </c>
-      <c r="O106" s="90">
-        <v>-18651.22</v>
-      </c>
-    </row>
-    <row r="107" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L107" s="89">
-        <v>85</v>
-      </c>
-      <c r="M107" s="90">
-        <v>1</v>
-      </c>
-      <c r="N107" s="90">
-        <v>7</v>
-      </c>
-      <c r="O107" s="90">
-        <v>-18655.5</v>
-      </c>
-    </row>
-    <row r="108" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L108" s="89">
-        <v>60</v>
-      </c>
-      <c r="M108" s="90">
-        <v>2</v>
-      </c>
-      <c r="N108" s="90">
-        <v>7</v>
-      </c>
-      <c r="O108" s="90">
-        <v>-18659.77</v>
-      </c>
-    </row>
-    <row r="109" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L109" s="89">
-        <v>32</v>
-      </c>
-      <c r="M109" s="90">
-        <v>3</v>
-      </c>
-      <c r="N109" s="90">
-        <v>7</v>
-      </c>
-      <c r="O109" s="90">
-        <v>-18665.7</v>
-      </c>
-    </row>
-    <row r="110" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L110" s="89">
-        <v>42</v>
-      </c>
-      <c r="M110" s="90">
-        <v>4</v>
-      </c>
-      <c r="N110" s="90">
-        <v>7</v>
-      </c>
-      <c r="O110" s="90">
-        <v>-18663.830000000002</v>
-      </c>
-    </row>
-    <row r="111" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L111" s="89">
-        <v>17</v>
-      </c>
-      <c r="M111" s="90">
-        <v>5</v>
-      </c>
-      <c r="N111" s="90">
-        <v>7</v>
-      </c>
-      <c r="O111" s="90">
-        <v>-18673.919999999998</v>
-      </c>
-    </row>
-    <row r="112" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L112" s="89">
-        <v>12</v>
-      </c>
-      <c r="M112" s="90">
-        <v>6</v>
-      </c>
-      <c r="N112" s="90">
-        <v>7</v>
-      </c>
-      <c r="O112" s="90">
-        <v>-18675.29</v>
-      </c>
-    </row>
-    <row r="113" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L113" s="89">
-        <v>9</v>
-      </c>
-      <c r="M113" s="90">
-        <v>7</v>
-      </c>
-      <c r="N113" s="90">
-        <v>7</v>
-      </c>
-      <c r="O113" s="90">
-        <v>-18676.39</v>
-      </c>
-    </row>
-    <row r="114" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L114" s="89">
-        <v>10</v>
-      </c>
-      <c r="M114" s="90">
-        <v>8</v>
-      </c>
-      <c r="N114" s="90">
-        <v>7</v>
-      </c>
-      <c r="O114" s="90">
-        <v>-18676.3</v>
-      </c>
-    </row>
-    <row r="115" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L115" s="89">
-        <v>14</v>
-      </c>
-      <c r="M115" s="90">
-        <v>9</v>
-      </c>
-      <c r="N115" s="90">
-        <v>7</v>
-      </c>
-      <c r="O115" s="90">
-        <v>-18674.57</v>
-      </c>
-    </row>
-    <row r="116" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L116" s="89">
-        <v>5</v>
-      </c>
-      <c r="M116" s="90">
-        <v>10</v>
-      </c>
-      <c r="N116" s="90">
-        <v>7</v>
-      </c>
-      <c r="O116" s="90">
-        <v>-18676.98</v>
-      </c>
-    </row>
-    <row r="117" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L117" s="89">
-        <v>61</v>
-      </c>
-      <c r="M117" s="90">
-        <v>0</v>
-      </c>
-      <c r="N117" s="90">
-        <v>8</v>
-      </c>
-      <c r="O117" s="90">
-        <v>-18659.759999999998</v>
-      </c>
-    </row>
-    <row r="118" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L118" s="89">
-        <v>66</v>
-      </c>
-      <c r="M118" s="90">
-        <v>1</v>
-      </c>
-      <c r="N118" s="90">
-        <v>8</v>
-      </c>
-      <c r="O118" s="90">
-        <v>-18659.34</v>
-      </c>
-    </row>
-    <row r="119" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L119" s="89">
-        <v>43</v>
-      </c>
-      <c r="M119" s="90">
-        <v>2</v>
-      </c>
-      <c r="N119" s="90">
-        <v>8</v>
-      </c>
-      <c r="O119" s="90">
-        <v>-18663.259999999998</v>
-      </c>
-    </row>
-    <row r="120" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L120" s="89">
-        <v>39</v>
-      </c>
-      <c r="M120" s="90">
-        <v>3</v>
-      </c>
-      <c r="N120" s="90">
-        <v>8</v>
-      </c>
-      <c r="O120" s="90">
-        <v>-18664.21</v>
-      </c>
-    </row>
-    <row r="121" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L121" s="89">
-        <v>80</v>
-      </c>
-      <c r="M121" s="90">
-        <v>4</v>
-      </c>
-      <c r="N121" s="90">
-        <v>8</v>
-      </c>
-      <c r="O121" s="90">
-        <v>-18656.02</v>
-      </c>
-    </row>
-    <row r="122" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L122" s="89">
-        <v>64</v>
-      </c>
-      <c r="M122" s="90">
-        <v>5</v>
-      </c>
-      <c r="N122" s="90">
-        <v>8</v>
-      </c>
-      <c r="O122" s="90">
-        <v>-18659.599999999999</v>
-      </c>
-    </row>
-    <row r="123" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L123" s="89">
-        <v>21</v>
-      </c>
-      <c r="M123" s="90">
-        <v>6</v>
-      </c>
-      <c r="N123" s="90">
-        <v>8</v>
-      </c>
-      <c r="O123" s="90">
-        <v>-18672.810000000001</v>
-      </c>
-    </row>
-    <row r="124" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L124" s="89">
-        <v>11</v>
-      </c>
-      <c r="M124" s="90">
-        <v>7</v>
-      </c>
-      <c r="N124" s="90">
-        <v>8</v>
-      </c>
-      <c r="O124" s="90">
-        <v>-18675.82</v>
-      </c>
-    </row>
-    <row r="125" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L125" s="89">
-        <v>27</v>
-      </c>
-      <c r="M125" s="90">
-        <v>8</v>
-      </c>
-      <c r="N125" s="90">
-        <v>8</v>
-      </c>
-      <c r="O125" s="90">
-        <v>-18671.71</v>
-      </c>
-    </row>
-    <row r="126" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L126" s="89">
-        <v>26</v>
-      </c>
-      <c r="M126" s="90">
-        <v>9</v>
-      </c>
-      <c r="N126" s="90">
-        <v>8</v>
-      </c>
-      <c r="O126" s="90">
-        <v>-18671.98</v>
-      </c>
-    </row>
-    <row r="127" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L127" s="89">
-        <v>23</v>
-      </c>
-      <c r="M127" s="90">
-        <v>10</v>
-      </c>
-      <c r="N127" s="90">
-        <v>8</v>
-      </c>
-      <c r="O127" s="90">
-        <v>-18672.41</v>
-      </c>
-    </row>
-    <row r="128" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L128" s="89">
-        <v>55</v>
-      </c>
-      <c r="M128" s="90">
-        <v>0</v>
-      </c>
-      <c r="N128" s="90">
-        <v>9</v>
-      </c>
-      <c r="O128" s="90">
-        <v>-18660.87</v>
-      </c>
-    </row>
-    <row r="129" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L129" s="89">
-        <v>65</v>
-      </c>
-      <c r="M129" s="90">
-        <v>1</v>
-      </c>
-      <c r="N129" s="90">
-        <v>9</v>
-      </c>
-      <c r="O129" s="90">
-        <v>-18659.37</v>
-      </c>
-    </row>
-    <row r="130" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L130" s="89">
-        <v>73</v>
-      </c>
-      <c r="M130" s="90">
-        <v>2</v>
-      </c>
-      <c r="N130" s="90">
-        <v>9</v>
-      </c>
-      <c r="O130" s="90">
-        <v>-18657.740000000002</v>
-      </c>
-    </row>
-    <row r="131" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L131" s="89">
-        <v>58</v>
-      </c>
-      <c r="M131" s="90">
-        <v>3</v>
-      </c>
-      <c r="N131" s="90">
-        <v>9</v>
-      </c>
-      <c r="O131" s="90">
-        <v>-18660.32</v>
-      </c>
-    </row>
-    <row r="132" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L132" s="89">
-        <v>33</v>
-      </c>
-      <c r="M132" s="90">
-        <v>4</v>
-      </c>
-      <c r="N132" s="90">
-        <v>9</v>
-      </c>
-      <c r="O132" s="90">
-        <v>-18665.63</v>
-      </c>
-    </row>
-    <row r="133" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L133" s="89">
-        <v>29</v>
-      </c>
-      <c r="M133" s="90">
-        <v>5</v>
-      </c>
-      <c r="N133" s="90">
-        <v>9</v>
-      </c>
-      <c r="O133" s="90">
-        <v>-18669.330000000002</v>
-      </c>
-    </row>
-    <row r="134" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L134" s="89">
-        <v>19</v>
-      </c>
-      <c r="M134" s="90">
-        <v>6</v>
-      </c>
-      <c r="N134" s="90">
-        <v>9</v>
-      </c>
-      <c r="O134" s="90">
-        <v>-18673.46</v>
-      </c>
-    </row>
-    <row r="135" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L135" s="89">
-        <v>6</v>
-      </c>
-      <c r="M135" s="90">
-        <v>7</v>
-      </c>
-      <c r="N135" s="90">
-        <v>9</v>
-      </c>
-      <c r="O135" s="90">
-        <v>-18676.68</v>
-      </c>
-    </row>
-    <row r="136" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L136" s="89">
-        <v>24</v>
-      </c>
-      <c r="M136" s="90">
-        <v>8</v>
-      </c>
-      <c r="N136" s="90">
-        <v>9</v>
-      </c>
-      <c r="O136" s="90">
-        <v>-18672.349999999999</v>
-      </c>
-    </row>
-    <row r="137" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L137" s="89">
-        <v>121</v>
-      </c>
-      <c r="M137" s="90">
-        <v>9</v>
-      </c>
-      <c r="N137" s="90">
-        <v>9</v>
-      </c>
-      <c r="O137" s="91" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="138" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L138" s="89">
-        <v>16</v>
-      </c>
-      <c r="M138" s="90">
-        <v>10</v>
-      </c>
-      <c r="N138" s="90">
-        <v>9</v>
-      </c>
-      <c r="O138" s="90">
-        <v>-18673.919999999998</v>
-      </c>
-    </row>
-    <row r="139" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L139" s="89">
-        <v>62</v>
-      </c>
-      <c r="M139" s="90">
-        <v>0</v>
-      </c>
-      <c r="N139" s="90">
-        <v>10</v>
-      </c>
-      <c r="O139" s="90">
-        <v>-18659.72</v>
-      </c>
-    </row>
-    <row r="140" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L140" s="89">
-        <v>72</v>
-      </c>
-      <c r="M140" s="90">
-        <v>1</v>
-      </c>
-      <c r="N140" s="90">
-        <v>10</v>
-      </c>
-      <c r="O140" s="90">
-        <v>-18657.75</v>
-      </c>
-    </row>
-    <row r="141" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L141" s="89">
-        <v>53</v>
-      </c>
-      <c r="M141" s="90">
-        <v>2</v>
-      </c>
-      <c r="N141" s="90">
-        <v>10</v>
-      </c>
-      <c r="O141" s="90">
-        <v>-18660.900000000001</v>
-      </c>
-    </row>
-    <row r="142" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L142" s="89">
-        <v>38</v>
-      </c>
-      <c r="M142" s="90">
-        <v>3</v>
-      </c>
-      <c r="N142" s="90">
-        <v>10</v>
-      </c>
-      <c r="O142" s="90">
-        <v>-18664.98</v>
-      </c>
-    </row>
-    <row r="143" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L143" s="89">
-        <v>15</v>
-      </c>
-      <c r="M143" s="90">
-        <v>4</v>
-      </c>
-      <c r="N143" s="90">
-        <v>10</v>
-      </c>
-      <c r="O143" s="90">
-        <v>-18674.36</v>
-      </c>
-    </row>
-    <row r="144" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L144" s="89">
-        <v>68</v>
-      </c>
-      <c r="M144" s="90">
-        <v>5</v>
-      </c>
-      <c r="N144" s="90">
-        <v>10</v>
-      </c>
-      <c r="O144" s="90">
-        <v>-18658.38</v>
-      </c>
-    </row>
-    <row r="145" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L145" s="89">
-        <v>4</v>
-      </c>
-      <c r="M145" s="90">
-        <v>6</v>
-      </c>
-      <c r="N145" s="90">
-        <v>10</v>
-      </c>
-      <c r="O145" s="90">
-        <v>-18677.900000000001</v>
-      </c>
-    </row>
-    <row r="146" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L146" s="89">
-        <v>2</v>
-      </c>
-      <c r="M146" s="90">
-        <v>7</v>
-      </c>
-      <c r="N146" s="90">
-        <v>10</v>
-      </c>
-      <c r="O146" s="90">
-        <v>-18679.22</v>
-      </c>
-    </row>
-    <row r="147" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L147" s="89">
-        <v>25</v>
-      </c>
-      <c r="M147" s="90">
-        <v>8</v>
-      </c>
-      <c r="N147" s="90">
-        <v>10</v>
-      </c>
-      <c r="O147" s="90">
-        <v>-18672.189999999999</v>
-      </c>
-    </row>
-    <row r="148" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L148" s="89">
-        <v>28</v>
-      </c>
-      <c r="M148" s="90">
-        <v>9</v>
-      </c>
-      <c r="N148" s="90">
-        <v>10</v>
-      </c>
-      <c r="O148" s="90">
-        <v>-18669.37</v>
-      </c>
-    </row>
-    <row r="149" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L149" s="89">
-        <v>1</v>
-      </c>
-      <c r="M149" s="90">
-        <v>10</v>
-      </c>
-      <c r="N149" s="90">
-        <v>10</v>
-      </c>
-      <c r="O149" s="90">
-        <v>-18687.189999999999</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72674ACD-2362-44B1-AAB8-83C3CEA3101A}">
   <dimension ref="A2:K5"/>
   <sheetViews>
@@ -21815,7 +20356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2FEF962-C071-4A05-8FAB-4C34D1B6ED39}">
   <dimension ref="A2:K19"/>
   <sheetViews>
@@ -22049,7 +20590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF1D7C7-B9C3-4380-88D7-3EC52190499F}">
   <dimension ref="A2:N19"/>
   <sheetViews>
@@ -22357,7 +20898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9858A4-0A0A-4217-ABAC-1213F6F5A96A}">
   <dimension ref="A2:L19"/>
   <sheetViews>
@@ -22619,7 +21160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC2ED4F-3F2F-4D46-ADF4-F6AFC7E1BFED}">
   <dimension ref="B2:Q23"/>
   <sheetViews>
@@ -23033,7 +21574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64257191-D9D9-488F-9745-D90376EB7A0F}">
   <dimension ref="B2:O20"/>
   <sheetViews>
@@ -23377,7 +21918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21506F42-D6B4-43E9-809A-FF253A787E04}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -23389,7 +21930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD37AB3-65AB-45F7-80A8-625062B37D11}">
   <dimension ref="B2:O16"/>
   <sheetViews>
@@ -23651,6 +22192,4512 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DEC062C-B881-47AB-8C5B-D3366D829BB9}">
+  <dimension ref="A1:P149"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="1.7109375" customWidth="1"/>
+    <col min="4" max="4" width="0.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="16" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <f>F1+1</f>
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <f>G1+1</f>
+        <v>2</v>
+      </c>
+      <c r="I1">
+        <f>H1+1</f>
+        <v>3</v>
+      </c>
+      <c r="J1">
+        <f>I1+1</f>
+        <v>4</v>
+      </c>
+      <c r="K1">
+        <f>J1+1</f>
+        <v>5</v>
+      </c>
+      <c r="L1">
+        <f>K1+1</f>
+        <v>6</v>
+      </c>
+      <c r="P1">
+        <f>L1+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+    </row>
+    <row r="5" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D6" s="6"/>
+      <c r="E6" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="93"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8">
+        <f>O29</f>
+        <v>-21936.080000000002</v>
+      </c>
+      <c r="G8" s="103">
+        <f>O40</f>
+        <v>-21958.99</v>
+      </c>
+      <c r="H8" s="102">
+        <f>O51</f>
+        <v>-21956.99</v>
+      </c>
+      <c r="I8" s="102">
+        <f>O62</f>
+        <v>-21955.16</v>
+      </c>
+      <c r="J8" s="102">
+        <f>O73</f>
+        <v>-21953.63</v>
+      </c>
+      <c r="K8" s="102">
+        <f>O84</f>
+        <v>-21951.72</v>
+      </c>
+      <c r="L8" s="105">
+        <f>O95</f>
+        <v>-21951.46</v>
+      </c>
+      <c r="M8">
+        <f>O106</f>
+        <v>-21952.79</v>
+      </c>
+      <c r="N8">
+        <f>O117</f>
+        <v>-21953.37</v>
+      </c>
+      <c r="O8">
+        <f>O128</f>
+        <v>-21957.15</v>
+      </c>
+      <c r="P8">
+        <f>O139</f>
+        <v>-21956.32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:F15" si="0">O30</f>
+        <v>-21958.880000000001</v>
+      </c>
+      <c r="G9" s="104">
+        <f t="shared" ref="G9:G15" si="1">O41</f>
+        <v>-21956.959999999999</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9:H15" si="2">O52</f>
+        <v>-21954.99</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9:I15" si="3">O63</f>
+        <v>-21953.14</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9:J15" si="4">O74</f>
+        <v>-21951.62</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:K15" si="5">O85</f>
+        <v>-21949.69</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ref="L9:L15" si="6">O96</f>
+        <v>-21954.74</v>
+      </c>
+      <c r="M9" s="105">
+        <f t="shared" ref="M9:M15" si="7">O107</f>
+        <v>-21954.43</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ref="N9:N15" si="8">O118</f>
+        <v>-21953.31</v>
+      </c>
+      <c r="O9">
+        <f t="shared" ref="O9:O15" si="9">O129</f>
+        <v>-21956.12</v>
+      </c>
+      <c r="P9">
+        <f t="shared" ref="P9:P15" si="10">O140</f>
+        <v>-21954.31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E10" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>-21956.97</v>
+      </c>
+      <c r="G10" s="104">
+        <f t="shared" si="1"/>
+        <v>-21954.98</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>-21953.15</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>-21951.14</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>-21949.62</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>-21947.69</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="6"/>
+        <v>-21966.240000000002</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="7"/>
+        <v>-21951.93</v>
+      </c>
+      <c r="N10" s="105">
+        <f t="shared" si="8"/>
+        <v>-21952.26</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="9"/>
+        <v>-21955.8</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="10"/>
+        <v>-21952.31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E11" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>-21955.08</v>
+      </c>
+      <c r="G11" s="105">
+        <f t="shared" si="1"/>
+        <v>-21953.09</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>-21951.09</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>-21949.5</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>-21950.22</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
+        <v>-21964.76</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="6"/>
+        <v>-21948.29</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="7"/>
+        <v>-21962.720000000001</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="8"/>
+        <v>-21960.42</v>
+      </c>
+      <c r="O11" s="105">
+        <f t="shared" si="9"/>
+        <v>-21954.05</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="10"/>
+        <v>-21951.88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E12" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>-21953.56</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>-21951.57</v>
+      </c>
+      <c r="H12" s="105">
+        <f t="shared" si="2"/>
+        <v>-21949.55</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>-21948.57</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>-21969.64</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>-21947.86</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="6"/>
+        <v>-21963.15</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="7"/>
+        <v>-21974.89</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="8"/>
+        <v>-21962.26</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="9"/>
+        <v>-21952.97</v>
+      </c>
+      <c r="P12" s="105">
+        <f t="shared" si="10"/>
+        <v>-21967.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E13" s="94" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>-21951.61</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>-21949.9</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>-21947.64</v>
+      </c>
+      <c r="I13" s="105">
+        <f t="shared" si="3"/>
+        <v>-21963.26</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>-21975.87</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
+        <v>-21965.4</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="6"/>
+        <v>-21976.84</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="7"/>
+        <v>-21974.84</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="8"/>
+        <v>-21960.7</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="9"/>
+        <v>-21969.51</v>
+      </c>
+      <c r="P13" s="107">
+        <f t="shared" si="10"/>
+        <v>-21971.94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E14" s="94" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>-21952.41</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>-21956.57</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>-21966.42</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>-21949.62</v>
+      </c>
+      <c r="J14" s="105">
+        <f t="shared" si="4"/>
+        <v>-21968.82</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>-21976.94</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="6"/>
+        <v>-21975.54</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="7"/>
+        <v>-21975.38</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="8"/>
+        <v>-21967.37</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="9"/>
+        <v>-21976.18</v>
+      </c>
+      <c r="P14" s="107">
+        <f t="shared" si="10"/>
+        <v>-21973.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="94" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>-21953.94</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>-21956.1</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>-21953.52</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>-21962.799999999999</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>-21977.15</v>
+      </c>
+      <c r="K15" s="105">
+        <f t="shared" si="5"/>
+        <v>-21975.08</v>
+      </c>
+      <c r="L15" s="106">
+        <f t="shared" si="6"/>
+        <v>-21974.58</v>
+      </c>
+      <c r="M15" s="106">
+        <f t="shared" si="7"/>
+        <v>-21980.74</v>
+      </c>
+      <c r="N15" s="106">
+        <f t="shared" si="8"/>
+        <v>-21976.98</v>
+      </c>
+      <c r="O15" s="106">
+        <f t="shared" si="9"/>
+        <v>-21976.959999999999</v>
+      </c>
+      <c r="P15" s="108">
+        <f t="shared" si="10"/>
+        <v>-21970.58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="3" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D17" s="29"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+    </row>
+    <row r="18" spans="4:16" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="89">
+        <v>121</v>
+      </c>
+      <c r="M29" s="90">
+        <v>0</v>
+      </c>
+      <c r="N29" s="90">
+        <v>0</v>
+      </c>
+      <c r="O29" s="90">
+        <v>-21936.080000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L30" s="89">
+        <v>58</v>
+      </c>
+      <c r="M30" s="90">
+        <v>1</v>
+      </c>
+      <c r="N30" s="90">
+        <v>0</v>
+      </c>
+      <c r="O30" s="90">
+        <v>-21958.880000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L31" s="89">
+        <v>65</v>
+      </c>
+      <c r="M31" s="90">
+        <v>2</v>
+      </c>
+      <c r="N31" s="90">
+        <v>0</v>
+      </c>
+      <c r="O31" s="90">
+        <v>-21956.97</v>
+      </c>
+    </row>
+    <row r="32" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L32" s="89">
+        <v>77</v>
+      </c>
+      <c r="M32" s="90">
+        <v>3</v>
+      </c>
+      <c r="N32" s="90">
+        <v>0</v>
+      </c>
+      <c r="O32" s="90">
+        <v>-21955.08</v>
+      </c>
+    </row>
+    <row r="33" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L33" s="89">
+        <v>88</v>
+      </c>
+      <c r="M33" s="90">
+        <v>4</v>
+      </c>
+      <c r="N33" s="90">
+        <v>0</v>
+      </c>
+      <c r="O33" s="90">
+        <v>-21953.56</v>
+      </c>
+    </row>
+    <row r="34" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L34" s="89">
+        <v>104</v>
+      </c>
+      <c r="M34" s="90">
+        <v>5</v>
+      </c>
+      <c r="N34" s="90">
+        <v>0</v>
+      </c>
+      <c r="O34" s="90">
+        <v>-21951.61</v>
+      </c>
+    </row>
+    <row r="35" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L35" s="89">
+        <v>97</v>
+      </c>
+      <c r="M35" s="90">
+        <v>6</v>
+      </c>
+      <c r="N35" s="90">
+        <v>0</v>
+      </c>
+      <c r="O35" s="90">
+        <v>-21952.41</v>
+      </c>
+    </row>
+    <row r="36" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L36" s="89">
+        <v>86</v>
+      </c>
+      <c r="M36" s="90">
+        <v>7</v>
+      </c>
+      <c r="N36" s="90">
+        <v>0</v>
+      </c>
+      <c r="O36" s="90">
+        <v>-21953.94</v>
+      </c>
+    </row>
+    <row r="37" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L37" s="89">
+        <v>75</v>
+      </c>
+      <c r="M37" s="90">
+        <v>8</v>
+      </c>
+      <c r="N37" s="90">
+        <v>0</v>
+      </c>
+      <c r="O37" s="90">
+        <v>-21955.45</v>
+      </c>
+    </row>
+    <row r="38" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L38" s="89">
+        <v>59</v>
+      </c>
+      <c r="M38" s="90">
+        <v>9</v>
+      </c>
+      <c r="N38" s="90">
+        <v>0</v>
+      </c>
+      <c r="O38" s="90">
+        <v>-21958.66</v>
+      </c>
+    </row>
+    <row r="39" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L39" s="89">
+        <v>60</v>
+      </c>
+      <c r="M39" s="90">
+        <v>10</v>
+      </c>
+      <c r="N39" s="90">
+        <v>0</v>
+      </c>
+      <c r="O39" s="90">
+        <v>-21958.61</v>
+      </c>
+    </row>
+    <row r="40" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L40" s="89">
+        <v>57</v>
+      </c>
+      <c r="M40" s="90">
+        <v>0</v>
+      </c>
+      <c r="N40" s="90">
+        <v>1</v>
+      </c>
+      <c r="O40" s="90">
+        <v>-21958.99</v>
+      </c>
+    </row>
+    <row r="41" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L41" s="89">
+        <v>66</v>
+      </c>
+      <c r="M41" s="90">
+        <v>1</v>
+      </c>
+      <c r="N41" s="90">
+        <v>1</v>
+      </c>
+      <c r="O41" s="90">
+        <v>-21956.959999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L42" s="89">
+        <v>79</v>
+      </c>
+      <c r="M42" s="90">
+        <v>2</v>
+      </c>
+      <c r="N42" s="90">
+        <v>1</v>
+      </c>
+      <c r="O42" s="90">
+        <v>-21954.98</v>
+      </c>
+    </row>
+    <row r="43" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L43" s="89">
+        <v>94</v>
+      </c>
+      <c r="M43" s="90">
+        <v>3</v>
+      </c>
+      <c r="N43" s="90">
+        <v>1</v>
+      </c>
+      <c r="O43" s="90">
+        <v>-21953.09</v>
+      </c>
+    </row>
+    <row r="44" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L44" s="89">
+        <v>105</v>
+      </c>
+      <c r="M44" s="90">
+        <v>4</v>
+      </c>
+      <c r="N44" s="90">
+        <v>1</v>
+      </c>
+      <c r="O44" s="90">
+        <v>-21951.57</v>
+      </c>
+    </row>
+    <row r="45" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L45" s="89">
+        <v>110</v>
+      </c>
+      <c r="M45" s="90">
+        <v>5</v>
+      </c>
+      <c r="N45" s="90">
+        <v>1</v>
+      </c>
+      <c r="O45" s="90">
+        <v>-21949.9</v>
+      </c>
+    </row>
+    <row r="46" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L46" s="89">
+        <v>68</v>
+      </c>
+      <c r="M46" s="90">
+        <v>6</v>
+      </c>
+      <c r="N46" s="90">
+        <v>1</v>
+      </c>
+      <c r="O46" s="90">
+        <v>-21956.57</v>
+      </c>
+    </row>
+    <row r="47" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L47" s="89">
+        <v>71</v>
+      </c>
+      <c r="M47" s="90">
+        <v>7</v>
+      </c>
+      <c r="N47" s="90">
+        <v>1</v>
+      </c>
+      <c r="O47" s="90">
+        <v>-21956.1</v>
+      </c>
+    </row>
+    <row r="48" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L48" s="89">
+        <v>74</v>
+      </c>
+      <c r="M48" s="90">
+        <v>8</v>
+      </c>
+      <c r="N48" s="90">
+        <v>1</v>
+      </c>
+      <c r="O48" s="90">
+        <v>-21955.46</v>
+      </c>
+    </row>
+    <row r="49" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L49" s="89">
+        <v>62</v>
+      </c>
+      <c r="M49" s="90">
+        <v>9</v>
+      </c>
+      <c r="N49" s="90">
+        <v>1</v>
+      </c>
+      <c r="O49" s="90">
+        <v>-21958.27</v>
+      </c>
+    </row>
+    <row r="50" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L50" s="89">
+        <v>67</v>
+      </c>
+      <c r="M50" s="90">
+        <v>10</v>
+      </c>
+      <c r="N50" s="90">
+        <v>1</v>
+      </c>
+      <c r="O50" s="90">
+        <v>-21956.65</v>
+      </c>
+    </row>
+    <row r="51" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L51" s="89">
+        <v>64</v>
+      </c>
+      <c r="M51" s="90">
+        <v>0</v>
+      </c>
+      <c r="N51" s="90">
+        <v>2</v>
+      </c>
+      <c r="O51" s="90">
+        <v>-21956.99</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L52" s="89">
+        <v>78</v>
+      </c>
+      <c r="M52" s="90">
+        <v>1</v>
+      </c>
+      <c r="N52" s="90">
+        <v>2</v>
+      </c>
+      <c r="O52" s="90">
+        <v>-21954.99</v>
+      </c>
+    </row>
+    <row r="53" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L53" s="89">
+        <v>92</v>
+      </c>
+      <c r="M53" s="90">
+        <v>2</v>
+      </c>
+      <c r="N53" s="90">
+        <v>2</v>
+      </c>
+      <c r="O53" s="90">
+        <v>-21953.15</v>
+      </c>
+    </row>
+    <row r="54" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L54" s="89">
+        <v>108</v>
+      </c>
+      <c r="M54" s="90">
+        <v>3</v>
+      </c>
+      <c r="N54" s="90">
+        <v>2</v>
+      </c>
+      <c r="O54" s="90">
+        <v>-21951.09</v>
+      </c>
+    </row>
+    <row r="55" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L55" s="89">
+        <v>114</v>
+      </c>
+      <c r="M55" s="90">
+        <v>4</v>
+      </c>
+      <c r="N55" s="90">
+        <v>2</v>
+      </c>
+      <c r="O55" s="90">
+        <v>-21949.55</v>
+      </c>
+    </row>
+    <row r="56" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L56" s="89">
+        <v>120</v>
+      </c>
+      <c r="M56" s="90">
+        <v>5</v>
+      </c>
+      <c r="N56" s="90">
+        <v>2</v>
+      </c>
+      <c r="O56" s="90">
+        <v>-21947.64</v>
+      </c>
+    </row>
+    <row r="57" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L57" s="89">
+        <v>43</v>
+      </c>
+      <c r="M57" s="90">
+        <v>6</v>
+      </c>
+      <c r="N57" s="90">
+        <v>2</v>
+      </c>
+      <c r="O57" s="90">
+        <v>-21966.42</v>
+      </c>
+    </row>
+    <row r="58" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L58" s="89">
+        <v>89</v>
+      </c>
+      <c r="M58" s="90">
+        <v>7</v>
+      </c>
+      <c r="N58" s="90">
+        <v>2</v>
+      </c>
+      <c r="O58" s="90">
+        <v>-21953.52</v>
+      </c>
+    </row>
+    <row r="59" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L59" s="89">
+        <v>83</v>
+      </c>
+      <c r="M59" s="90">
+        <v>8</v>
+      </c>
+      <c r="N59" s="90">
+        <v>2</v>
+      </c>
+      <c r="O59" s="90">
+        <v>-21954.38</v>
+      </c>
+    </row>
+    <row r="60" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L60" s="89">
+        <v>61</v>
+      </c>
+      <c r="M60" s="90">
+        <v>9</v>
+      </c>
+      <c r="N60" s="90">
+        <v>2</v>
+      </c>
+      <c r="O60" s="90">
+        <v>-21958.6</v>
+      </c>
+    </row>
+    <row r="61" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L61" s="89">
+        <v>81</v>
+      </c>
+      <c r="M61" s="90">
+        <v>10</v>
+      </c>
+      <c r="N61" s="90">
+        <v>2</v>
+      </c>
+      <c r="O61" s="90">
+        <v>-21954.65</v>
+      </c>
+    </row>
+    <row r="62" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L62" s="89">
+        <v>76</v>
+      </c>
+      <c r="M62" s="90">
+        <v>0</v>
+      </c>
+      <c r="N62" s="90">
+        <v>3</v>
+      </c>
+      <c r="O62" s="90">
+        <v>-21955.16</v>
+      </c>
+    </row>
+    <row r="63" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L63" s="89">
+        <v>93</v>
+      </c>
+      <c r="M63" s="90">
+        <v>1</v>
+      </c>
+      <c r="N63" s="90">
+        <v>3</v>
+      </c>
+      <c r="O63" s="90">
+        <v>-21953.14</v>
+      </c>
+    </row>
+    <row r="64" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L64" s="89">
+        <v>107</v>
+      </c>
+      <c r="M64" s="90">
+        <v>2</v>
+      </c>
+      <c r="N64" s="90">
+        <v>3</v>
+      </c>
+      <c r="O64" s="90">
+        <v>-21951.14</v>
+      </c>
+    </row>
+    <row r="65" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L65" s="89">
+        <v>115</v>
+      </c>
+      <c r="M65" s="90">
+        <v>3</v>
+      </c>
+      <c r="N65" s="90">
+        <v>3</v>
+      </c>
+      <c r="O65" s="90">
+        <v>-21949.5</v>
+      </c>
+    </row>
+    <row r="66" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L66" s="89">
+        <v>116</v>
+      </c>
+      <c r="M66" s="90">
+        <v>4</v>
+      </c>
+      <c r="N66" s="90">
+        <v>3</v>
+      </c>
+      <c r="O66" s="90">
+        <v>-21948.57</v>
+      </c>
+    </row>
+    <row r="67" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L67" s="89">
+        <v>50</v>
+      </c>
+      <c r="M67" s="90">
+        <v>5</v>
+      </c>
+      <c r="N67" s="90">
+        <v>3</v>
+      </c>
+      <c r="O67" s="90">
+        <v>-21963.26</v>
+      </c>
+    </row>
+    <row r="68" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L68" s="89">
+        <v>112</v>
+      </c>
+      <c r="M68" s="90">
+        <v>6</v>
+      </c>
+      <c r="N68" s="90">
+        <v>3</v>
+      </c>
+      <c r="O68" s="90">
+        <v>-21949.62</v>
+      </c>
+    </row>
+    <row r="69" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L69" s="89">
+        <v>52</v>
+      </c>
+      <c r="M69" s="90">
+        <v>7</v>
+      </c>
+      <c r="N69" s="90">
+        <v>3</v>
+      </c>
+      <c r="O69" s="90">
+        <v>-21962.799999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L70" s="89">
+        <v>49</v>
+      </c>
+      <c r="M70" s="90">
+        <v>8</v>
+      </c>
+      <c r="N70" s="90">
+        <v>3</v>
+      </c>
+      <c r="O70" s="90">
+        <v>-21963.65</v>
+      </c>
+    </row>
+    <row r="71" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L71" s="89">
+        <v>48</v>
+      </c>
+      <c r="M71" s="90">
+        <v>9</v>
+      </c>
+      <c r="N71" s="90">
+        <v>3</v>
+      </c>
+      <c r="O71" s="90">
+        <v>-21964.57</v>
+      </c>
+    </row>
+    <row r="72" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L72" s="89">
+        <v>73</v>
+      </c>
+      <c r="M72" s="90">
+        <v>10</v>
+      </c>
+      <c r="N72" s="90">
+        <v>3</v>
+      </c>
+      <c r="O72" s="90">
+        <v>-21955.53</v>
+      </c>
+    </row>
+    <row r="73" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L73" s="89">
+        <v>87</v>
+      </c>
+      <c r="M73" s="90">
+        <v>0</v>
+      </c>
+      <c r="N73" s="90">
+        <v>4</v>
+      </c>
+      <c r="O73" s="90">
+        <v>-21953.63</v>
+      </c>
+    </row>
+    <row r="74" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L74" s="89">
+        <v>103</v>
+      </c>
+      <c r="M74" s="90">
+        <v>1</v>
+      </c>
+      <c r="N74" s="90">
+        <v>4</v>
+      </c>
+      <c r="O74" s="90">
+        <v>-21951.62</v>
+      </c>
+    </row>
+    <row r="75" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L75" s="89">
+        <v>113</v>
+      </c>
+      <c r="M75" s="90">
+        <v>2</v>
+      </c>
+      <c r="N75" s="90">
+        <v>4</v>
+      </c>
+      <c r="O75" s="90">
+        <v>-21949.62</v>
+      </c>
+    </row>
+    <row r="76" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L76" s="89">
+        <v>109</v>
+      </c>
+      <c r="M76" s="90">
+        <v>3</v>
+      </c>
+      <c r="N76" s="90">
+        <v>4</v>
+      </c>
+      <c r="O76" s="90">
+        <v>-21950.22</v>
+      </c>
+    </row>
+    <row r="77" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L77" s="89">
+        <v>37</v>
+      </c>
+      <c r="M77" s="90">
+        <v>4</v>
+      </c>
+      <c r="N77" s="90">
+        <v>4</v>
+      </c>
+      <c r="O77" s="90">
+        <v>-21969.64</v>
+      </c>
+    </row>
+    <row r="78" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L78" s="89">
+        <v>14</v>
+      </c>
+      <c r="M78" s="90">
+        <v>5</v>
+      </c>
+      <c r="N78" s="90">
+        <v>4</v>
+      </c>
+      <c r="O78" s="90">
+        <v>-21975.87</v>
+      </c>
+    </row>
+    <row r="79" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L79" s="89">
+        <v>39</v>
+      </c>
+      <c r="M79" s="90">
+        <v>6</v>
+      </c>
+      <c r="N79" s="90">
+        <v>4</v>
+      </c>
+      <c r="O79" s="90">
+        <v>-21968.82</v>
+      </c>
+    </row>
+    <row r="80" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L80" s="89">
+        <v>5</v>
+      </c>
+      <c r="M80" s="90">
+        <v>7</v>
+      </c>
+      <c r="N80" s="90">
+        <v>4</v>
+      </c>
+      <c r="O80" s="90">
+        <v>-21977.15</v>
+      </c>
+    </row>
+    <row r="81" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L81" s="89">
+        <v>26</v>
+      </c>
+      <c r="M81" s="90">
+        <v>8</v>
+      </c>
+      <c r="N81" s="90">
+        <v>4</v>
+      </c>
+      <c r="O81" s="90">
+        <v>-21974.75</v>
+      </c>
+    </row>
+    <row r="82" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L82" s="89">
+        <v>46</v>
+      </c>
+      <c r="M82" s="90">
+        <v>9</v>
+      </c>
+      <c r="N82" s="90">
+        <v>4</v>
+      </c>
+      <c r="O82" s="90">
+        <v>-21965.13</v>
+      </c>
+    </row>
+    <row r="83" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L83" s="89">
+        <v>28</v>
+      </c>
+      <c r="M83" s="90">
+        <v>10</v>
+      </c>
+      <c r="N83" s="90">
+        <v>4</v>
+      </c>
+      <c r="O83" s="90">
+        <v>-21973.86</v>
+      </c>
+    </row>
+    <row r="84" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L84" s="89">
+        <v>102</v>
+      </c>
+      <c r="M84" s="90">
+        <v>0</v>
+      </c>
+      <c r="N84" s="90">
+        <v>5</v>
+      </c>
+      <c r="O84" s="90">
+        <v>-21951.72</v>
+      </c>
+    </row>
+    <row r="85" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L85" s="89">
+        <v>111</v>
+      </c>
+      <c r="M85" s="90">
+        <v>1</v>
+      </c>
+      <c r="N85" s="90">
+        <v>5</v>
+      </c>
+      <c r="O85" s="90">
+        <v>-21949.69</v>
+      </c>
+    </row>
+    <row r="86" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L86" s="89">
+        <v>119</v>
+      </c>
+      <c r="M86" s="90">
+        <v>2</v>
+      </c>
+      <c r="N86" s="90">
+        <v>5</v>
+      </c>
+      <c r="O86" s="90">
+        <v>-21947.69</v>
+      </c>
+    </row>
+    <row r="87" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L87" s="89">
+        <v>47</v>
+      </c>
+      <c r="M87" s="90">
+        <v>3</v>
+      </c>
+      <c r="N87" s="90">
+        <v>5</v>
+      </c>
+      <c r="O87" s="90">
+        <v>-21964.76</v>
+      </c>
+    </row>
+    <row r="88" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L88" s="89">
+        <v>118</v>
+      </c>
+      <c r="M88" s="90">
+        <v>4</v>
+      </c>
+      <c r="N88" s="90">
+        <v>5</v>
+      </c>
+      <c r="O88" s="90">
+        <v>-21947.86</v>
+      </c>
+    </row>
+    <row r="89" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L89" s="89">
+        <v>45</v>
+      </c>
+      <c r="M89" s="90">
+        <v>5</v>
+      </c>
+      <c r="N89" s="90">
+        <v>5</v>
+      </c>
+      <c r="O89" s="90">
+        <v>-21965.4</v>
+      </c>
+    </row>
+    <row r="90" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L90" s="89">
+        <v>8</v>
+      </c>
+      <c r="M90" s="90">
+        <v>6</v>
+      </c>
+      <c r="N90" s="90">
+        <v>5</v>
+      </c>
+      <c r="O90" s="90">
+        <v>-21976.94</v>
+      </c>
+    </row>
+    <row r="91" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L91" s="89">
+        <v>20</v>
+      </c>
+      <c r="M91" s="90">
+        <v>7</v>
+      </c>
+      <c r="N91" s="90">
+        <v>5</v>
+      </c>
+      <c r="O91" s="90">
+        <v>-21975.08</v>
+      </c>
+    </row>
+    <row r="92" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L92" s="89">
+        <v>18</v>
+      </c>
+      <c r="M92" s="90">
+        <v>8</v>
+      </c>
+      <c r="N92" s="90">
+        <v>5</v>
+      </c>
+      <c r="O92" s="90">
+        <v>-21975.46</v>
+      </c>
+    </row>
+    <row r="93" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L93" s="89">
+        <v>34</v>
+      </c>
+      <c r="M93" s="90">
+        <v>9</v>
+      </c>
+      <c r="N93" s="90">
+        <v>5</v>
+      </c>
+      <c r="O93" s="90">
+        <v>-21970.73</v>
+      </c>
+    </row>
+    <row r="94" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L94" s="89">
+        <v>31</v>
+      </c>
+      <c r="M94" s="90">
+        <v>10</v>
+      </c>
+      <c r="N94" s="90">
+        <v>5</v>
+      </c>
+      <c r="O94" s="90">
+        <v>-21972.44</v>
+      </c>
+    </row>
+    <row r="95" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L95" s="89">
+        <v>106</v>
+      </c>
+      <c r="M95" s="90">
+        <v>0</v>
+      </c>
+      <c r="N95" s="90">
+        <v>6</v>
+      </c>
+      <c r="O95" s="90">
+        <v>-21951.46</v>
+      </c>
+    </row>
+    <row r="96" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L96" s="89">
+        <v>80</v>
+      </c>
+      <c r="M96" s="90">
+        <v>1</v>
+      </c>
+      <c r="N96" s="90">
+        <v>6</v>
+      </c>
+      <c r="O96" s="90">
+        <v>-21954.74</v>
+      </c>
+    </row>
+    <row r="97" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L97" s="89">
+        <v>44</v>
+      </c>
+      <c r="M97" s="90">
+        <v>2</v>
+      </c>
+      <c r="N97" s="90">
+        <v>6</v>
+      </c>
+      <c r="O97" s="90">
+        <v>-21966.240000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L98" s="89">
+        <v>117</v>
+      </c>
+      <c r="M98" s="90">
+        <v>3</v>
+      </c>
+      <c r="N98" s="90">
+        <v>6</v>
+      </c>
+      <c r="O98" s="90">
+        <v>-21948.29</v>
+      </c>
+    </row>
+    <row r="99" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L99" s="89">
+        <v>51</v>
+      </c>
+      <c r="M99" s="90">
+        <v>4</v>
+      </c>
+      <c r="N99" s="90">
+        <v>6</v>
+      </c>
+      <c r="O99" s="90">
+        <v>-21963.15</v>
+      </c>
+    </row>
+    <row r="100" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L100" s="89">
+        <v>9</v>
+      </c>
+      <c r="M100" s="90">
+        <v>5</v>
+      </c>
+      <c r="N100" s="90">
+        <v>6</v>
+      </c>
+      <c r="O100" s="90">
+        <v>-21976.84</v>
+      </c>
+    </row>
+    <row r="101" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L101" s="89">
+        <v>16</v>
+      </c>
+      <c r="M101" s="90">
+        <v>6</v>
+      </c>
+      <c r="N101" s="90">
+        <v>6</v>
+      </c>
+      <c r="O101" s="90">
+        <v>-21975.54</v>
+      </c>
+    </row>
+    <row r="102" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L102" s="89">
+        <v>27</v>
+      </c>
+      <c r="M102" s="90">
+        <v>7</v>
+      </c>
+      <c r="N102" s="90">
+        <v>6</v>
+      </c>
+      <c r="O102" s="90">
+        <v>-21974.58</v>
+      </c>
+    </row>
+    <row r="103" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L103" s="89">
+        <v>4</v>
+      </c>
+      <c r="M103" s="90">
+        <v>8</v>
+      </c>
+      <c r="N103" s="90">
+        <v>6</v>
+      </c>
+      <c r="O103" s="90">
+        <v>-21979.42</v>
+      </c>
+    </row>
+    <row r="104" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L104" s="89">
+        <v>12</v>
+      </c>
+      <c r="M104" s="90">
+        <v>9</v>
+      </c>
+      <c r="N104" s="90">
+        <v>6</v>
+      </c>
+      <c r="O104" s="90">
+        <v>-21976.41</v>
+      </c>
+    </row>
+    <row r="105" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L105" s="89">
+        <v>33</v>
+      </c>
+      <c r="M105" s="90">
+        <v>10</v>
+      </c>
+      <c r="N105" s="90">
+        <v>6</v>
+      </c>
+      <c r="O105" s="90">
+        <v>-21971.919999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L106" s="89">
+        <v>96</v>
+      </c>
+      <c r="M106" s="90">
+        <v>0</v>
+      </c>
+      <c r="N106" s="90">
+        <v>7</v>
+      </c>
+      <c r="O106" s="90">
+        <v>-21952.79</v>
+      </c>
+    </row>
+    <row r="107" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L107" s="89">
+        <v>82</v>
+      </c>
+      <c r="M107" s="90">
+        <v>1</v>
+      </c>
+      <c r="N107" s="90">
+        <v>7</v>
+      </c>
+      <c r="O107" s="90">
+        <v>-21954.43</v>
+      </c>
+    </row>
+    <row r="108" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L108" s="89">
+        <v>100</v>
+      </c>
+      <c r="M108" s="90">
+        <v>2</v>
+      </c>
+      <c r="N108" s="90">
+        <v>7</v>
+      </c>
+      <c r="O108" s="90">
+        <v>-21951.93</v>
+      </c>
+    </row>
+    <row r="109" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L109" s="89">
+        <v>53</v>
+      </c>
+      <c r="M109" s="90">
+        <v>3</v>
+      </c>
+      <c r="N109" s="90">
+        <v>7</v>
+      </c>
+      <c r="O109" s="90">
+        <v>-21962.720000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L110" s="89">
+        <v>24</v>
+      </c>
+      <c r="M110" s="90">
+        <v>4</v>
+      </c>
+      <c r="N110" s="90">
+        <v>7</v>
+      </c>
+      <c r="O110" s="90">
+        <v>-21974.89</v>
+      </c>
+    </row>
+    <row r="111" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L111" s="89">
+        <v>25</v>
+      </c>
+      <c r="M111" s="90">
+        <v>5</v>
+      </c>
+      <c r="N111" s="90">
+        <v>7</v>
+      </c>
+      <c r="O111" s="90">
+        <v>-21974.84</v>
+      </c>
+    </row>
+    <row r="112" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L112" s="89">
+        <v>19</v>
+      </c>
+      <c r="M112" s="90">
+        <v>6</v>
+      </c>
+      <c r="N112" s="90">
+        <v>7</v>
+      </c>
+      <c r="O112" s="90">
+        <v>-21975.38</v>
+      </c>
+    </row>
+    <row r="113" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L113" s="89">
+        <v>3</v>
+      </c>
+      <c r="M113" s="90">
+        <v>7</v>
+      </c>
+      <c r="N113" s="90">
+        <v>7</v>
+      </c>
+      <c r="O113" s="90">
+        <v>-21980.74</v>
+      </c>
+    </row>
+    <row r="114" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L114" s="89">
+        <v>41</v>
+      </c>
+      <c r="M114" s="90">
+        <v>8</v>
+      </c>
+      <c r="N114" s="90">
+        <v>7</v>
+      </c>
+      <c r="O114" s="90">
+        <v>-21967.64</v>
+      </c>
+    </row>
+    <row r="115" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L115" s="89">
+        <v>22</v>
+      </c>
+      <c r="M115" s="90">
+        <v>9</v>
+      </c>
+      <c r="N115" s="90">
+        <v>7</v>
+      </c>
+      <c r="O115" s="90">
+        <v>-21974.95</v>
+      </c>
+    </row>
+    <row r="116" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L116" s="89">
+        <v>15</v>
+      </c>
+      <c r="M116" s="90">
+        <v>10</v>
+      </c>
+      <c r="N116" s="90">
+        <v>7</v>
+      </c>
+      <c r="O116" s="90">
+        <v>-21975.59</v>
+      </c>
+    </row>
+    <row r="117" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L117" s="89">
+        <v>90</v>
+      </c>
+      <c r="M117" s="90">
+        <v>0</v>
+      </c>
+      <c r="N117" s="90">
+        <v>8</v>
+      </c>
+      <c r="O117" s="90">
+        <v>-21953.37</v>
+      </c>
+    </row>
+    <row r="118" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L118" s="89">
+        <v>91</v>
+      </c>
+      <c r="M118" s="90">
+        <v>1</v>
+      </c>
+      <c r="N118" s="90">
+        <v>8</v>
+      </c>
+      <c r="O118" s="90">
+        <v>-21953.31</v>
+      </c>
+    </row>
+    <row r="119" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L119" s="89">
+        <v>99</v>
+      </c>
+      <c r="M119" s="90">
+        <v>2</v>
+      </c>
+      <c r="N119" s="90">
+        <v>8</v>
+      </c>
+      <c r="O119" s="90">
+        <v>-21952.26</v>
+      </c>
+    </row>
+    <row r="120" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L120" s="89">
+        <v>56</v>
+      </c>
+      <c r="M120" s="90">
+        <v>3</v>
+      </c>
+      <c r="N120" s="90">
+        <v>8</v>
+      </c>
+      <c r="O120" s="90">
+        <v>-21960.42</v>
+      </c>
+    </row>
+    <row r="121" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L121" s="89">
+        <v>54</v>
+      </c>
+      <c r="M121" s="90">
+        <v>4</v>
+      </c>
+      <c r="N121" s="90">
+        <v>8</v>
+      </c>
+      <c r="O121" s="90">
+        <v>-21962.26</v>
+      </c>
+    </row>
+    <row r="122" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L122" s="89">
+        <v>55</v>
+      </c>
+      <c r="M122" s="90">
+        <v>5</v>
+      </c>
+      <c r="N122" s="90">
+        <v>8</v>
+      </c>
+      <c r="O122" s="90">
+        <v>-21960.7</v>
+      </c>
+    </row>
+    <row r="123" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L123" s="89">
+        <v>42</v>
+      </c>
+      <c r="M123" s="90">
+        <v>6</v>
+      </c>
+      <c r="N123" s="90">
+        <v>8</v>
+      </c>
+      <c r="O123" s="90">
+        <v>-21967.37</v>
+      </c>
+    </row>
+    <row r="124" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L124" s="89">
+        <v>6</v>
+      </c>
+      <c r="M124" s="90">
+        <v>7</v>
+      </c>
+      <c r="N124" s="90">
+        <v>8</v>
+      </c>
+      <c r="O124" s="90">
+        <v>-21976.98</v>
+      </c>
+    </row>
+    <row r="125" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L125" s="89">
+        <v>21</v>
+      </c>
+      <c r="M125" s="90">
+        <v>8</v>
+      </c>
+      <c r="N125" s="90">
+        <v>8</v>
+      </c>
+      <c r="O125" s="90">
+        <v>-21974.959999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L126" s="89">
+        <v>11</v>
+      </c>
+      <c r="M126" s="90">
+        <v>9</v>
+      </c>
+      <c r="N126" s="90">
+        <v>8</v>
+      </c>
+      <c r="O126" s="90">
+        <v>-21976.68</v>
+      </c>
+    </row>
+    <row r="127" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L127" s="89">
+        <v>23</v>
+      </c>
+      <c r="M127" s="90">
+        <v>10</v>
+      </c>
+      <c r="N127" s="90">
+        <v>8</v>
+      </c>
+      <c r="O127" s="90">
+        <v>-21974.94</v>
+      </c>
+    </row>
+    <row r="128" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L128" s="89">
+        <v>63</v>
+      </c>
+      <c r="M128" s="90">
+        <v>0</v>
+      </c>
+      <c r="N128" s="90">
+        <v>9</v>
+      </c>
+      <c r="O128" s="90">
+        <v>-21957.15</v>
+      </c>
+    </row>
+    <row r="129" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L129" s="89">
+        <v>70</v>
+      </c>
+      <c r="M129" s="90">
+        <v>1</v>
+      </c>
+      <c r="N129" s="90">
+        <v>9</v>
+      </c>
+      <c r="O129" s="90">
+        <v>-21956.12</v>
+      </c>
+    </row>
+    <row r="130" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L130" s="89">
+        <v>72</v>
+      </c>
+      <c r="M130" s="90">
+        <v>2</v>
+      </c>
+      <c r="N130" s="90">
+        <v>9</v>
+      </c>
+      <c r="O130" s="90">
+        <v>-21955.8</v>
+      </c>
+    </row>
+    <row r="131" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L131" s="89">
+        <v>85</v>
+      </c>
+      <c r="M131" s="90">
+        <v>3</v>
+      </c>
+      <c r="N131" s="90">
+        <v>9</v>
+      </c>
+      <c r="O131" s="90">
+        <v>-21954.05</v>
+      </c>
+    </row>
+    <row r="132" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L132" s="89">
+        <v>95</v>
+      </c>
+      <c r="M132" s="90">
+        <v>4</v>
+      </c>
+      <c r="N132" s="90">
+        <v>9</v>
+      </c>
+      <c r="O132" s="90">
+        <v>-21952.97</v>
+      </c>
+    </row>
+    <row r="133" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L133" s="89">
+        <v>38</v>
+      </c>
+      <c r="M133" s="90">
+        <v>5</v>
+      </c>
+      <c r="N133" s="90">
+        <v>9</v>
+      </c>
+      <c r="O133" s="90">
+        <v>-21969.51</v>
+      </c>
+    </row>
+    <row r="134" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L134" s="89">
+        <v>13</v>
+      </c>
+      <c r="M134" s="90">
+        <v>6</v>
+      </c>
+      <c r="N134" s="90">
+        <v>9</v>
+      </c>
+      <c r="O134" s="90">
+        <v>-21976.18</v>
+      </c>
+    </row>
+    <row r="135" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L135" s="89">
+        <v>7</v>
+      </c>
+      <c r="M135" s="90">
+        <v>7</v>
+      </c>
+      <c r="N135" s="90">
+        <v>9</v>
+      </c>
+      <c r="O135" s="90">
+        <v>-21976.959999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L136" s="89">
+        <v>10</v>
+      </c>
+      <c r="M136" s="90">
+        <v>8</v>
+      </c>
+      <c r="N136" s="90">
+        <v>9</v>
+      </c>
+      <c r="O136" s="90">
+        <v>-21976.81</v>
+      </c>
+    </row>
+    <row r="137" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L137" s="89">
+        <v>1</v>
+      </c>
+      <c r="M137" s="90">
+        <v>9</v>
+      </c>
+      <c r="N137" s="90">
+        <v>9</v>
+      </c>
+      <c r="O137" s="90">
+        <v>-21986.42</v>
+      </c>
+    </row>
+    <row r="138" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L138" s="89">
+        <v>30</v>
+      </c>
+      <c r="M138" s="90">
+        <v>10</v>
+      </c>
+      <c r="N138" s="90">
+        <v>9</v>
+      </c>
+      <c r="O138" s="90">
+        <v>-21972.79</v>
+      </c>
+    </row>
+    <row r="139" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L139" s="89">
+        <v>69</v>
+      </c>
+      <c r="M139" s="90">
+        <v>0</v>
+      </c>
+      <c r="N139" s="90">
+        <v>10</v>
+      </c>
+      <c r="O139" s="90">
+        <v>-21956.32</v>
+      </c>
+    </row>
+    <row r="140" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L140" s="89">
+        <v>84</v>
+      </c>
+      <c r="M140" s="90">
+        <v>1</v>
+      </c>
+      <c r="N140" s="90">
+        <v>10</v>
+      </c>
+      <c r="O140" s="90">
+        <v>-21954.31</v>
+      </c>
+    </row>
+    <row r="141" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L141" s="89">
+        <v>98</v>
+      </c>
+      <c r="M141" s="90">
+        <v>2</v>
+      </c>
+      <c r="N141" s="90">
+        <v>10</v>
+      </c>
+      <c r="O141" s="90">
+        <v>-21952.31</v>
+      </c>
+    </row>
+    <row r="142" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L142" s="89">
+        <v>101</v>
+      </c>
+      <c r="M142" s="90">
+        <v>3</v>
+      </c>
+      <c r="N142" s="90">
+        <v>10</v>
+      </c>
+      <c r="O142" s="90">
+        <v>-21951.88</v>
+      </c>
+    </row>
+    <row r="143" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L143" s="89">
+        <v>40</v>
+      </c>
+      <c r="M143" s="90">
+        <v>4</v>
+      </c>
+      <c r="N143" s="90">
+        <v>10</v>
+      </c>
+      <c r="O143" s="90">
+        <v>-21967.99</v>
+      </c>
+    </row>
+    <row r="144" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L144" s="89">
+        <v>32</v>
+      </c>
+      <c r="M144" s="90">
+        <v>5</v>
+      </c>
+      <c r="N144" s="90">
+        <v>10</v>
+      </c>
+      <c r="O144" s="90">
+        <v>-21971.94</v>
+      </c>
+    </row>
+    <row r="145" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L145" s="89">
+        <v>29</v>
+      </c>
+      <c r="M145" s="90">
+        <v>6</v>
+      </c>
+      <c r="N145" s="90">
+        <v>10</v>
+      </c>
+      <c r="O145" s="90">
+        <v>-21973.7</v>
+      </c>
+    </row>
+    <row r="146" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L146" s="89">
+        <v>35</v>
+      </c>
+      <c r="M146" s="90">
+        <v>7</v>
+      </c>
+      <c r="N146" s="90">
+        <v>10</v>
+      </c>
+      <c r="O146" s="90">
+        <v>-21970.58</v>
+      </c>
+    </row>
+    <row r="147" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L147" s="89">
+        <v>36</v>
+      </c>
+      <c r="M147" s="90">
+        <v>8</v>
+      </c>
+      <c r="N147" s="90">
+        <v>10</v>
+      </c>
+      <c r="O147" s="90">
+        <v>-21969.65</v>
+      </c>
+    </row>
+    <row r="148" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L148" s="89">
+        <v>2</v>
+      </c>
+      <c r="M148" s="90">
+        <v>9</v>
+      </c>
+      <c r="N148" s="90">
+        <v>10</v>
+      </c>
+      <c r="O148" s="90">
+        <v>-21984.23</v>
+      </c>
+    </row>
+    <row r="149" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L149" s="89">
+        <v>17</v>
+      </c>
+      <c r="M149" s="90">
+        <v>10</v>
+      </c>
+      <c r="N149" s="90">
+        <v>10</v>
+      </c>
+      <c r="O149" s="90">
+        <v>-21975.46</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F8:P15">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D2ABA9-ECEB-46F0-8E3A-A3E858B7AB04}">
+  <dimension ref="A1:P149"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="1.7109375" customWidth="1"/>
+    <col min="4" max="4" width="0.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="16" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <f>F1+1</f>
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <f>G1+1</f>
+        <v>2</v>
+      </c>
+      <c r="I1">
+        <f>H1+1</f>
+        <v>3</v>
+      </c>
+      <c r="J1">
+        <f>I1+1</f>
+        <v>4</v>
+      </c>
+      <c r="K1">
+        <f>J1+1</f>
+        <v>5</v>
+      </c>
+      <c r="L1">
+        <f>K1+1</f>
+        <v>6</v>
+      </c>
+      <c r="P1">
+        <f>L1+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+    </row>
+    <row r="5" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D6" s="6"/>
+      <c r="E6" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="93"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="14">
+        <f>O29</f>
+        <v>-18654.55</v>
+      </c>
+      <c r="G8" s="101">
+        <f>O40</f>
+        <v>-18658.14</v>
+      </c>
+      <c r="H8" s="100">
+        <f>O51</f>
+        <v>-18657.63</v>
+      </c>
+      <c r="I8" s="100">
+        <f>O62</f>
+        <v>-18655.86</v>
+      </c>
+      <c r="J8" s="100">
+        <f>O73</f>
+        <v>-18654.439999999999</v>
+      </c>
+      <c r="K8" s="100">
+        <f>O84</f>
+        <v>-18652.55</v>
+      </c>
+      <c r="L8" s="100">
+        <f>O95</f>
+        <v>-18650.55</v>
+      </c>
+      <c r="M8" s="100">
+        <f>O106</f>
+        <v>-18651.22</v>
+      </c>
+      <c r="N8" s="100">
+        <f>O117</f>
+        <v>-18659.759999999998</v>
+      </c>
+      <c r="O8" s="100">
+        <f>O128</f>
+        <v>-18660.87</v>
+      </c>
+      <c r="P8" s="99">
+        <f>O139</f>
+        <v>-18659.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" ref="F9:F15" si="0">O30</f>
+        <v>-18658.330000000002</v>
+      </c>
+      <c r="G9" s="95">
+        <f t="shared" ref="G9:G15" si="1">O41</f>
+        <v>-18657.009999999998</v>
+      </c>
+      <c r="H9" s="14">
+        <f t="shared" ref="H9:H15" si="2">O52</f>
+        <v>-18655.61</v>
+      </c>
+      <c r="I9" s="14">
+        <f t="shared" ref="I9:I15" si="3">O63</f>
+        <v>-18653.87</v>
+      </c>
+      <c r="J9" s="14">
+        <f t="shared" ref="J9:J15" si="4">O74</f>
+        <v>-18652.45</v>
+      </c>
+      <c r="K9" s="14">
+        <f t="shared" ref="K9:K15" si="5">O85</f>
+        <v>-18650.55</v>
+      </c>
+      <c r="L9" s="14">
+        <f t="shared" ref="L9:L15" si="6">O96</f>
+        <v>-18648.55</v>
+      </c>
+      <c r="M9" s="14">
+        <f t="shared" ref="M9:M15" si="7">O107</f>
+        <v>-18655.5</v>
+      </c>
+      <c r="N9" s="14">
+        <f t="shared" ref="N9:N15" si="8">O118</f>
+        <v>-18659.34</v>
+      </c>
+      <c r="O9" s="14">
+        <f t="shared" ref="O9:O15" si="9">O129</f>
+        <v>-18659.37</v>
+      </c>
+      <c r="P9" s="98">
+        <f t="shared" ref="P9:P15" si="10">O140</f>
+        <v>-18657.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E10" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" si="0"/>
+        <v>-18657.509999999998</v>
+      </c>
+      <c r="G10" s="14">
+        <f t="shared" si="1"/>
+        <v>-18655.53</v>
+      </c>
+      <c r="H10" s="95">
+        <f t="shared" si="2"/>
+        <v>-18654.2</v>
+      </c>
+      <c r="I10" s="14">
+        <f t="shared" si="3"/>
+        <v>-18651.86</v>
+      </c>
+      <c r="J10" s="14">
+        <f t="shared" si="4"/>
+        <v>-18652.45</v>
+      </c>
+      <c r="K10" s="14">
+        <f t="shared" si="5"/>
+        <v>-18650.66</v>
+      </c>
+      <c r="L10" s="14">
+        <f t="shared" si="6"/>
+        <v>-18649.11</v>
+      </c>
+      <c r="M10" s="14">
+        <f t="shared" si="7"/>
+        <v>-18659.77</v>
+      </c>
+      <c r="N10" s="14">
+        <f t="shared" si="8"/>
+        <v>-18663.259999999998</v>
+      </c>
+      <c r="O10" s="14">
+        <f t="shared" si="9"/>
+        <v>-18657.740000000002</v>
+      </c>
+      <c r="P10" s="98">
+        <f t="shared" si="10"/>
+        <v>-18660.900000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E11" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="14">
+        <f t="shared" si="0"/>
+        <v>-18655.900000000001</v>
+      </c>
+      <c r="G11" s="14">
+        <f t="shared" si="1"/>
+        <v>-18653.88</v>
+      </c>
+      <c r="H11" s="14">
+        <f t="shared" si="2"/>
+        <v>-18651.89</v>
+      </c>
+      <c r="I11" s="95">
+        <f t="shared" si="3"/>
+        <v>-18672.45</v>
+      </c>
+      <c r="J11" s="14">
+        <f t="shared" si="4"/>
+        <v>-18650.48</v>
+      </c>
+      <c r="K11" s="14">
+        <f t="shared" si="5"/>
+        <v>-18648.740000000002</v>
+      </c>
+      <c r="L11" s="14">
+        <f t="shared" si="6"/>
+        <v>-18651.61</v>
+      </c>
+      <c r="M11" s="14">
+        <f t="shared" si="7"/>
+        <v>-18665.7</v>
+      </c>
+      <c r="N11" s="14">
+        <f t="shared" si="8"/>
+        <v>-18664.21</v>
+      </c>
+      <c r="O11" s="14">
+        <f t="shared" si="9"/>
+        <v>-18660.32</v>
+      </c>
+      <c r="P11" s="98">
+        <f t="shared" si="10"/>
+        <v>-18664.98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E12" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="0"/>
+        <v>-18654.38</v>
+      </c>
+      <c r="G12" s="14">
+        <f t="shared" si="1"/>
+        <v>-18652.38</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" si="2"/>
+        <v>-18650.37</v>
+      </c>
+      <c r="I12" s="14">
+        <f t="shared" si="3"/>
+        <v>-18650.36</v>
+      </c>
+      <c r="J12" s="95">
+        <f t="shared" si="4"/>
+        <v>-18658.080000000002</v>
+      </c>
+      <c r="K12" s="14">
+        <f t="shared" si="5"/>
+        <v>-18647.45</v>
+      </c>
+      <c r="L12" s="14">
+        <f t="shared" si="6"/>
+        <v>-18645.43</v>
+      </c>
+      <c r="M12" s="14">
+        <f t="shared" si="7"/>
+        <v>-18663.830000000002</v>
+      </c>
+      <c r="N12" s="14">
+        <f t="shared" si="8"/>
+        <v>-18656.02</v>
+      </c>
+      <c r="O12" s="14">
+        <f t="shared" si="9"/>
+        <v>-18665.63</v>
+      </c>
+      <c r="P12" s="98">
+        <f t="shared" si="10"/>
+        <v>-18674.36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E13" s="94" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" si="0"/>
+        <v>-18652.439999999999</v>
+      </c>
+      <c r="G13" s="14">
+        <f t="shared" si="1"/>
+        <v>-18650.43</v>
+      </c>
+      <c r="H13" s="14">
+        <f t="shared" si="2"/>
+        <v>-18650.919999999998</v>
+      </c>
+      <c r="I13" s="14">
+        <f t="shared" si="3"/>
+        <v>-18661.189999999999</v>
+      </c>
+      <c r="J13" s="14">
+        <f t="shared" si="4"/>
+        <v>-18647.689999999999</v>
+      </c>
+      <c r="K13" s="95">
+        <f t="shared" si="5"/>
+        <v>-18659.71</v>
+      </c>
+      <c r="L13" s="14">
+        <f t="shared" si="6"/>
+        <v>-18660.39</v>
+      </c>
+      <c r="M13" s="14">
+        <f t="shared" si="7"/>
+        <v>-18673.919999999998</v>
+      </c>
+      <c r="N13" s="14">
+        <f t="shared" si="8"/>
+        <v>-18659.599999999999</v>
+      </c>
+      <c r="O13" s="14">
+        <f t="shared" si="9"/>
+        <v>-18669.330000000002</v>
+      </c>
+      <c r="P13" s="98">
+        <f t="shared" si="10"/>
+        <v>-18658.38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E14" s="94" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="14">
+        <f t="shared" si="0"/>
+        <v>-18650.48</v>
+      </c>
+      <c r="G14" s="14">
+        <f t="shared" si="1"/>
+        <v>-18648.47</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" si="2"/>
+        <v>-18646.45</v>
+      </c>
+      <c r="I14" s="14">
+        <f t="shared" si="3"/>
+        <v>-18646.96</v>
+      </c>
+      <c r="J14" s="14">
+        <f t="shared" si="4"/>
+        <v>-18645.689999999999</v>
+      </c>
+      <c r="K14" s="14">
+        <f t="shared" si="5"/>
+        <v>-18660.43</v>
+      </c>
+      <c r="L14" s="95">
+        <f t="shared" si="6"/>
+        <v>-18676.61</v>
+      </c>
+      <c r="M14" s="14">
+        <f t="shared" si="7"/>
+        <v>-18675.29</v>
+      </c>
+      <c r="N14" s="14">
+        <f t="shared" si="8"/>
+        <v>-18672.810000000001</v>
+      </c>
+      <c r="O14" s="14">
+        <f t="shared" si="9"/>
+        <v>-18673.46</v>
+      </c>
+      <c r="P14" s="98">
+        <f t="shared" si="10"/>
+        <v>-18677.900000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="94" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="14">
+        <f t="shared" si="0"/>
+        <v>-18652.41</v>
+      </c>
+      <c r="G15" s="14">
+        <f t="shared" si="1"/>
+        <v>-18657.41</v>
+      </c>
+      <c r="H15" s="14">
+        <f t="shared" si="2"/>
+        <v>-18661.560000000001</v>
+      </c>
+      <c r="I15" s="14">
+        <f t="shared" si="3"/>
+        <v>-18665.259999999998</v>
+      </c>
+      <c r="J15" s="14">
+        <f t="shared" si="4"/>
+        <v>-18663.849999999999</v>
+      </c>
+      <c r="K15" s="14">
+        <f t="shared" si="5"/>
+        <v>-18665.59</v>
+      </c>
+      <c r="L15" s="14">
+        <f t="shared" si="6"/>
+        <v>-18675.27</v>
+      </c>
+      <c r="M15" s="95">
+        <f t="shared" si="7"/>
+        <v>-18676.39</v>
+      </c>
+      <c r="N15" s="96">
+        <f t="shared" si="8"/>
+        <v>-18675.82</v>
+      </c>
+      <c r="O15" s="96">
+        <f t="shared" si="9"/>
+        <v>-18676.68</v>
+      </c>
+      <c r="P15" s="97">
+        <f t="shared" si="10"/>
+        <v>-18679.22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="3" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D17" s="29"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+    </row>
+    <row r="18" spans="4:16" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="89">
+        <v>86</v>
+      </c>
+      <c r="M29" s="90">
+        <v>0</v>
+      </c>
+      <c r="N29" s="90">
+        <v>0</v>
+      </c>
+      <c r="O29" s="90">
+        <v>-18654.55</v>
+      </c>
+    </row>
+    <row r="30" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L30" s="89">
+        <v>69</v>
+      </c>
+      <c r="M30" s="90">
+        <v>1</v>
+      </c>
+      <c r="N30" s="90">
+        <v>0</v>
+      </c>
+      <c r="O30" s="90">
+        <v>-18658.330000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L31" s="89">
+        <v>75</v>
+      </c>
+      <c r="M31" s="90">
+        <v>2</v>
+      </c>
+      <c r="N31" s="90">
+        <v>0</v>
+      </c>
+      <c r="O31" s="90">
+        <v>-18657.509999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L32" s="89">
+        <v>81</v>
+      </c>
+      <c r="M32" s="90">
+        <v>3</v>
+      </c>
+      <c r="N32" s="90">
+        <v>0</v>
+      </c>
+      <c r="O32" s="90">
+        <v>-18655.900000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L33" s="89">
+        <v>88</v>
+      </c>
+      <c r="M33" s="90">
+        <v>4</v>
+      </c>
+      <c r="N33" s="90">
+        <v>0</v>
+      </c>
+      <c r="O33" s="90">
+        <v>-18654.38</v>
+      </c>
+    </row>
+    <row r="34" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L34" s="89">
+        <v>95</v>
+      </c>
+      <c r="M34" s="90">
+        <v>5</v>
+      </c>
+      <c r="N34" s="90">
+        <v>0</v>
+      </c>
+      <c r="O34" s="90">
+        <v>-18652.439999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L35" s="89">
+        <v>106</v>
+      </c>
+      <c r="M35" s="90">
+        <v>6</v>
+      </c>
+      <c r="N35" s="90">
+        <v>0</v>
+      </c>
+      <c r="O35" s="90">
+        <v>-18650.48</v>
+      </c>
+    </row>
+    <row r="36" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L36" s="89">
+        <v>96</v>
+      </c>
+      <c r="M36" s="90">
+        <v>7</v>
+      </c>
+      <c r="N36" s="90">
+        <v>0</v>
+      </c>
+      <c r="O36" s="90">
+        <v>-18652.41</v>
+      </c>
+    </row>
+    <row r="37" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L37" s="89">
+        <v>47</v>
+      </c>
+      <c r="M37" s="90">
+        <v>8</v>
+      </c>
+      <c r="N37" s="90">
+        <v>0</v>
+      </c>
+      <c r="O37" s="90">
+        <v>-18662.43</v>
+      </c>
+    </row>
+    <row r="38" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L38" s="89">
+        <v>45</v>
+      </c>
+      <c r="M38" s="90">
+        <v>9</v>
+      </c>
+      <c r="N38" s="90">
+        <v>0</v>
+      </c>
+      <c r="O38" s="90">
+        <v>-18662.72</v>
+      </c>
+    </row>
+    <row r="39" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L39" s="89">
+        <v>46</v>
+      </c>
+      <c r="M39" s="90">
+        <v>10</v>
+      </c>
+      <c r="N39" s="90">
+        <v>0</v>
+      </c>
+      <c r="O39" s="90">
+        <v>-18662.68</v>
+      </c>
+    </row>
+    <row r="40" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L40" s="89">
+        <v>70</v>
+      </c>
+      <c r="M40" s="90">
+        <v>0</v>
+      </c>
+      <c r="N40" s="90">
+        <v>1</v>
+      </c>
+      <c r="O40" s="90">
+        <v>-18658.14</v>
+      </c>
+    </row>
+    <row r="41" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L41" s="89">
+        <v>79</v>
+      </c>
+      <c r="M41" s="90">
+        <v>1</v>
+      </c>
+      <c r="N41" s="90">
+        <v>1</v>
+      </c>
+      <c r="O41" s="90">
+        <v>-18657.009999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L42" s="89">
+        <v>84</v>
+      </c>
+      <c r="M42" s="90">
+        <v>2</v>
+      </c>
+      <c r="N42" s="90">
+        <v>1</v>
+      </c>
+      <c r="O42" s="90">
+        <v>-18655.53</v>
+      </c>
+    </row>
+    <row r="43" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L43" s="89">
+        <v>90</v>
+      </c>
+      <c r="M43" s="90">
+        <v>3</v>
+      </c>
+      <c r="N43" s="90">
+        <v>1</v>
+      </c>
+      <c r="O43" s="90">
+        <v>-18653.88</v>
+      </c>
+    </row>
+    <row r="44" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L44" s="89">
+        <v>97</v>
+      </c>
+      <c r="M44" s="90">
+        <v>4</v>
+      </c>
+      <c r="N44" s="90">
+        <v>1</v>
+      </c>
+      <c r="O44" s="90">
+        <v>-18652.38</v>
+      </c>
+    </row>
+    <row r="45" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L45" s="89">
+        <v>108</v>
+      </c>
+      <c r="M45" s="90">
+        <v>5</v>
+      </c>
+      <c r="N45" s="90">
+        <v>1</v>
+      </c>
+      <c r="O45" s="90">
+        <v>-18650.43</v>
+      </c>
+    </row>
+    <row r="46" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L46" s="89">
+        <v>114</v>
+      </c>
+      <c r="M46" s="90">
+        <v>6</v>
+      </c>
+      <c r="N46" s="90">
+        <v>1</v>
+      </c>
+      <c r="O46" s="90">
+        <v>-18648.47</v>
+      </c>
+    </row>
+    <row r="47" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L47" s="89">
+        <v>76</v>
+      </c>
+      <c r="M47" s="90">
+        <v>7</v>
+      </c>
+      <c r="N47" s="90">
+        <v>1</v>
+      </c>
+      <c r="O47" s="90">
+        <v>-18657.41</v>
+      </c>
+    </row>
+    <row r="48" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L48" s="89">
+        <v>50</v>
+      </c>
+      <c r="M48" s="90">
+        <v>8</v>
+      </c>
+      <c r="N48" s="90">
+        <v>1</v>
+      </c>
+      <c r="O48" s="90">
+        <v>-18661.59</v>
+      </c>
+    </row>
+    <row r="49" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L49" s="89">
+        <v>49</v>
+      </c>
+      <c r="M49" s="90">
+        <v>9</v>
+      </c>
+      <c r="N49" s="90">
+        <v>1</v>
+      </c>
+      <c r="O49" s="90">
+        <v>-18661.77</v>
+      </c>
+    </row>
+    <row r="50" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L50" s="89">
+        <v>36</v>
+      </c>
+      <c r="M50" s="90">
+        <v>10</v>
+      </c>
+      <c r="N50" s="90">
+        <v>1</v>
+      </c>
+      <c r="O50" s="90">
+        <v>-18665.310000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L51" s="89">
+        <v>74</v>
+      </c>
+      <c r="M51" s="90">
+        <v>0</v>
+      </c>
+      <c r="N51" s="90">
+        <v>2</v>
+      </c>
+      <c r="O51" s="90">
+        <v>-18657.63</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L52" s="89">
+        <v>83</v>
+      </c>
+      <c r="M52" s="90">
+        <v>1</v>
+      </c>
+      <c r="N52" s="90">
+        <v>2</v>
+      </c>
+      <c r="O52" s="90">
+        <v>-18655.61</v>
+      </c>
+    </row>
+    <row r="53" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L53" s="89">
+        <v>89</v>
+      </c>
+      <c r="M53" s="90">
+        <v>2</v>
+      </c>
+      <c r="N53" s="90">
+        <v>2</v>
+      </c>
+      <c r="O53" s="90">
+        <v>-18654.2</v>
+      </c>
+    </row>
+    <row r="54" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L54" s="89">
+        <v>98</v>
+      </c>
+      <c r="M54" s="90">
+        <v>3</v>
+      </c>
+      <c r="N54" s="90">
+        <v>2</v>
+      </c>
+      <c r="O54" s="90">
+        <v>-18651.89</v>
+      </c>
+    </row>
+    <row r="55" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L55" s="89">
+        <v>109</v>
+      </c>
+      <c r="M55" s="90">
+        <v>4</v>
+      </c>
+      <c r="N55" s="90">
+        <v>2</v>
+      </c>
+      <c r="O55" s="90">
+        <v>-18650.37</v>
+      </c>
+    </row>
+    <row r="56" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L56" s="89">
+        <v>102</v>
+      </c>
+      <c r="M56" s="90">
+        <v>5</v>
+      </c>
+      <c r="N56" s="90">
+        <v>2</v>
+      </c>
+      <c r="O56" s="90">
+        <v>-18650.919999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L57" s="89">
+        <v>118</v>
+      </c>
+      <c r="M57" s="90">
+        <v>6</v>
+      </c>
+      <c r="N57" s="90">
+        <v>2</v>
+      </c>
+      <c r="O57" s="90">
+        <v>-18646.45</v>
+      </c>
+    </row>
+    <row r="58" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L58" s="89">
+        <v>51</v>
+      </c>
+      <c r="M58" s="90">
+        <v>7</v>
+      </c>
+      <c r="N58" s="90">
+        <v>2</v>
+      </c>
+      <c r="O58" s="90">
+        <v>-18661.560000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L59" s="89">
+        <v>40</v>
+      </c>
+      <c r="M59" s="90">
+        <v>8</v>
+      </c>
+      <c r="N59" s="90">
+        <v>2</v>
+      </c>
+      <c r="O59" s="90">
+        <v>-18663.939999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L60" s="89">
+        <v>59</v>
+      </c>
+      <c r="M60" s="90">
+        <v>9</v>
+      </c>
+      <c r="N60" s="90">
+        <v>2</v>
+      </c>
+      <c r="O60" s="90">
+        <v>-18660.009999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L61" s="89">
+        <v>44</v>
+      </c>
+      <c r="M61" s="90">
+        <v>10</v>
+      </c>
+      <c r="N61" s="90">
+        <v>2</v>
+      </c>
+      <c r="O61" s="90">
+        <v>-18663.03</v>
+      </c>
+    </row>
+    <row r="62" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L62" s="89">
+        <v>82</v>
+      </c>
+      <c r="M62" s="90">
+        <v>0</v>
+      </c>
+      <c r="N62" s="90">
+        <v>3</v>
+      </c>
+      <c r="O62" s="90">
+        <v>-18655.86</v>
+      </c>
+    </row>
+    <row r="63" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L63" s="89">
+        <v>91</v>
+      </c>
+      <c r="M63" s="90">
+        <v>1</v>
+      </c>
+      <c r="N63" s="90">
+        <v>3</v>
+      </c>
+      <c r="O63" s="90">
+        <v>-18653.87</v>
+      </c>
+    </row>
+    <row r="64" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L64" s="89">
+        <v>99</v>
+      </c>
+      <c r="M64" s="90">
+        <v>2</v>
+      </c>
+      <c r="N64" s="90">
+        <v>3</v>
+      </c>
+      <c r="O64" s="90">
+        <v>-18651.86</v>
+      </c>
+    </row>
+    <row r="65" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L65" s="89">
+        <v>22</v>
+      </c>
+      <c r="M65" s="90">
+        <v>3</v>
+      </c>
+      <c r="N65" s="90">
+        <v>3</v>
+      </c>
+      <c r="O65" s="90">
+        <v>-18672.45</v>
+      </c>
+    </row>
+    <row r="66" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L66" s="89">
+        <v>110</v>
+      </c>
+      <c r="M66" s="90">
+        <v>4</v>
+      </c>
+      <c r="N66" s="90">
+        <v>3</v>
+      </c>
+      <c r="O66" s="90">
+        <v>-18650.36</v>
+      </c>
+    </row>
+    <row r="67" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L67" s="89">
+        <v>52</v>
+      </c>
+      <c r="M67" s="90">
+        <v>5</v>
+      </c>
+      <c r="N67" s="90">
+        <v>3</v>
+      </c>
+      <c r="O67" s="90">
+        <v>-18661.189999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L68" s="89">
+        <v>117</v>
+      </c>
+      <c r="M68" s="90">
+        <v>6</v>
+      </c>
+      <c r="N68" s="90">
+        <v>3</v>
+      </c>
+      <c r="O68" s="90">
+        <v>-18646.96</v>
+      </c>
+    </row>
+    <row r="69" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L69" s="89">
+        <v>37</v>
+      </c>
+      <c r="M69" s="90">
+        <v>7</v>
+      </c>
+      <c r="N69" s="90">
+        <v>3</v>
+      </c>
+      <c r="O69" s="90">
+        <v>-18665.259999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L70" s="89">
+        <v>35</v>
+      </c>
+      <c r="M70" s="90">
+        <v>8</v>
+      </c>
+      <c r="N70" s="90">
+        <v>3</v>
+      </c>
+      <c r="O70" s="90">
+        <v>-18665.46</v>
+      </c>
+    </row>
+    <row r="71" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L71" s="89">
+        <v>54</v>
+      </c>
+      <c r="M71" s="90">
+        <v>9</v>
+      </c>
+      <c r="N71" s="90">
+        <v>3</v>
+      </c>
+      <c r="O71" s="90">
+        <v>-18660.88</v>
+      </c>
+    </row>
+    <row r="72" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L72" s="89">
+        <v>77</v>
+      </c>
+      <c r="M72" s="90">
+        <v>10</v>
+      </c>
+      <c r="N72" s="90">
+        <v>3</v>
+      </c>
+      <c r="O72" s="90">
+        <v>-18657.21</v>
+      </c>
+    </row>
+    <row r="73" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L73" s="89">
+        <v>87</v>
+      </c>
+      <c r="M73" s="90">
+        <v>0</v>
+      </c>
+      <c r="N73" s="90">
+        <v>4</v>
+      </c>
+      <c r="O73" s="90">
+        <v>-18654.439999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L74" s="89">
+        <v>93</v>
+      </c>
+      <c r="M74" s="90">
+        <v>1</v>
+      </c>
+      <c r="N74" s="90">
+        <v>4</v>
+      </c>
+      <c r="O74" s="90">
+        <v>-18652.45</v>
+      </c>
+    </row>
+    <row r="75" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L75" s="89">
+        <v>94</v>
+      </c>
+      <c r="M75" s="90">
+        <v>2</v>
+      </c>
+      <c r="N75" s="90">
+        <v>4</v>
+      </c>
+      <c r="O75" s="90">
+        <v>-18652.45</v>
+      </c>
+    </row>
+    <row r="76" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L76" s="89">
+        <v>107</v>
+      </c>
+      <c r="M76" s="90">
+        <v>3</v>
+      </c>
+      <c r="N76" s="90">
+        <v>4</v>
+      </c>
+      <c r="O76" s="90">
+        <v>-18650.48</v>
+      </c>
+    </row>
+    <row r="77" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L77" s="89">
+        <v>71</v>
+      </c>
+      <c r="M77" s="90">
+        <v>4</v>
+      </c>
+      <c r="N77" s="90">
+        <v>4</v>
+      </c>
+      <c r="O77" s="90">
+        <v>-18658.080000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L78" s="89">
+        <v>115</v>
+      </c>
+      <c r="M78" s="90">
+        <v>5</v>
+      </c>
+      <c r="N78" s="90">
+        <v>4</v>
+      </c>
+      <c r="O78" s="90">
+        <v>-18647.689999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L79" s="89">
+        <v>119</v>
+      </c>
+      <c r="M79" s="90">
+        <v>6</v>
+      </c>
+      <c r="N79" s="90">
+        <v>4</v>
+      </c>
+      <c r="O79" s="90">
+        <v>-18645.689999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L80" s="89">
+        <v>41</v>
+      </c>
+      <c r="M80" s="90">
+        <v>7</v>
+      </c>
+      <c r="N80" s="90">
+        <v>4</v>
+      </c>
+      <c r="O80" s="90">
+        <v>-18663.849999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L81" s="89">
+        <v>48</v>
+      </c>
+      <c r="M81" s="90">
+        <v>8</v>
+      </c>
+      <c r="N81" s="90">
+        <v>4</v>
+      </c>
+      <c r="O81" s="90">
+        <v>-18662.330000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L82" s="89">
+        <v>78</v>
+      </c>
+      <c r="M82" s="90">
+        <v>9</v>
+      </c>
+      <c r="N82" s="90">
+        <v>4</v>
+      </c>
+      <c r="O82" s="90">
+        <v>-18657.09</v>
+      </c>
+    </row>
+    <row r="83" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L83" s="89">
+        <v>30</v>
+      </c>
+      <c r="M83" s="90">
+        <v>10</v>
+      </c>
+      <c r="N83" s="90">
+        <v>4</v>
+      </c>
+      <c r="O83" s="90">
+        <v>-18669.2</v>
+      </c>
+    </row>
+    <row r="84" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L84" s="89">
+        <v>92</v>
+      </c>
+      <c r="M84" s="90">
+        <v>0</v>
+      </c>
+      <c r="N84" s="90">
+        <v>5</v>
+      </c>
+      <c r="O84" s="90">
+        <v>-18652.55</v>
+      </c>
+    </row>
+    <row r="85" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L85" s="89">
+        <v>104</v>
+      </c>
+      <c r="M85" s="90">
+        <v>1</v>
+      </c>
+      <c r="N85" s="90">
+        <v>5</v>
+      </c>
+      <c r="O85" s="90">
+        <v>-18650.55</v>
+      </c>
+    </row>
+    <row r="86" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L86" s="89">
+        <v>103</v>
+      </c>
+      <c r="M86" s="90">
+        <v>2</v>
+      </c>
+      <c r="N86" s="90">
+        <v>5</v>
+      </c>
+      <c r="O86" s="90">
+        <v>-18650.66</v>
+      </c>
+    </row>
+    <row r="87" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L87" s="89">
+        <v>112</v>
+      </c>
+      <c r="M87" s="90">
+        <v>3</v>
+      </c>
+      <c r="N87" s="90">
+        <v>5</v>
+      </c>
+      <c r="O87" s="90">
+        <v>-18648.740000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L88" s="89">
+        <v>116</v>
+      </c>
+      <c r="M88" s="90">
+        <v>4</v>
+      </c>
+      <c r="N88" s="90">
+        <v>5</v>
+      </c>
+      <c r="O88" s="90">
+        <v>-18647.45</v>
+      </c>
+    </row>
+    <row r="89" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L89" s="89">
+        <v>63</v>
+      </c>
+      <c r="M89" s="90">
+        <v>5</v>
+      </c>
+      <c r="N89" s="90">
+        <v>5</v>
+      </c>
+      <c r="O89" s="90">
+        <v>-18659.71</v>
+      </c>
+    </row>
+    <row r="90" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L90" s="89">
+        <v>56</v>
+      </c>
+      <c r="M90" s="90">
+        <v>6</v>
+      </c>
+      <c r="N90" s="90">
+        <v>5</v>
+      </c>
+      <c r="O90" s="90">
+        <v>-18660.43</v>
+      </c>
+    </row>
+    <row r="91" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L91" s="89">
+        <v>34</v>
+      </c>
+      <c r="M91" s="90">
+        <v>7</v>
+      </c>
+      <c r="N91" s="90">
+        <v>5</v>
+      </c>
+      <c r="O91" s="90">
+        <v>-18665.59</v>
+      </c>
+    </row>
+    <row r="92" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L92" s="89">
+        <v>31</v>
+      </c>
+      <c r="M92" s="90">
+        <v>8</v>
+      </c>
+      <c r="N92" s="90">
+        <v>5</v>
+      </c>
+      <c r="O92" s="90">
+        <v>-18668.86</v>
+      </c>
+    </row>
+    <row r="93" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L93" s="89">
+        <v>67</v>
+      </c>
+      <c r="M93" s="90">
+        <v>9</v>
+      </c>
+      <c r="N93" s="90">
+        <v>5</v>
+      </c>
+      <c r="O93" s="90">
+        <v>-18658.79</v>
+      </c>
+    </row>
+    <row r="94" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L94" s="89">
+        <v>18</v>
+      </c>
+      <c r="M94" s="90">
+        <v>10</v>
+      </c>
+      <c r="N94" s="90">
+        <v>5</v>
+      </c>
+      <c r="O94" s="90">
+        <v>-18673.54</v>
+      </c>
+    </row>
+    <row r="95" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L95" s="89">
+        <v>105</v>
+      </c>
+      <c r="M95" s="90">
+        <v>0</v>
+      </c>
+      <c r="N95" s="90">
+        <v>6</v>
+      </c>
+      <c r="O95" s="90">
+        <v>-18650.55</v>
+      </c>
+    </row>
+    <row r="96" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L96" s="89">
+        <v>113</v>
+      </c>
+      <c r="M96" s="90">
+        <v>1</v>
+      </c>
+      <c r="N96" s="90">
+        <v>6</v>
+      </c>
+      <c r="O96" s="90">
+        <v>-18648.55</v>
+      </c>
+    </row>
+    <row r="97" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L97" s="89">
+        <v>111</v>
+      </c>
+      <c r="M97" s="90">
+        <v>2</v>
+      </c>
+      <c r="N97" s="90">
+        <v>6</v>
+      </c>
+      <c r="O97" s="90">
+        <v>-18649.11</v>
+      </c>
+    </row>
+    <row r="98" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L98" s="89">
+        <v>100</v>
+      </c>
+      <c r="M98" s="90">
+        <v>3</v>
+      </c>
+      <c r="N98" s="90">
+        <v>6</v>
+      </c>
+      <c r="O98" s="90">
+        <v>-18651.61</v>
+      </c>
+    </row>
+    <row r="99" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L99" s="89">
+        <v>120</v>
+      </c>
+      <c r="M99" s="90">
+        <v>4</v>
+      </c>
+      <c r="N99" s="90">
+        <v>6</v>
+      </c>
+      <c r="O99" s="90">
+        <v>-18645.43</v>
+      </c>
+    </row>
+    <row r="100" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L100" s="89">
+        <v>57</v>
+      </c>
+      <c r="M100" s="90">
+        <v>5</v>
+      </c>
+      <c r="N100" s="90">
+        <v>6</v>
+      </c>
+      <c r="O100" s="90">
+        <v>-18660.39</v>
+      </c>
+    </row>
+    <row r="101" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L101" s="89">
+        <v>8</v>
+      </c>
+      <c r="M101" s="90">
+        <v>6</v>
+      </c>
+      <c r="N101" s="90">
+        <v>6</v>
+      </c>
+      <c r="O101" s="90">
+        <v>-18676.61</v>
+      </c>
+    </row>
+    <row r="102" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L102" s="89">
+        <v>13</v>
+      </c>
+      <c r="M102" s="90">
+        <v>7</v>
+      </c>
+      <c r="N102" s="90">
+        <v>6</v>
+      </c>
+      <c r="O102" s="90">
+        <v>-18675.27</v>
+      </c>
+    </row>
+    <row r="103" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L103" s="89">
+        <v>20</v>
+      </c>
+      <c r="M103" s="90">
+        <v>8</v>
+      </c>
+      <c r="N103" s="90">
+        <v>6</v>
+      </c>
+      <c r="O103" s="90">
+        <v>-18673.009999999998</v>
+      </c>
+    </row>
+    <row r="104" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L104" s="89">
+        <v>7</v>
+      </c>
+      <c r="M104" s="90">
+        <v>9</v>
+      </c>
+      <c r="N104" s="90">
+        <v>6</v>
+      </c>
+      <c r="O104" s="90">
+        <v>-18676.62</v>
+      </c>
+    </row>
+    <row r="105" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L105" s="89">
+        <v>3</v>
+      </c>
+      <c r="M105" s="90">
+        <v>10</v>
+      </c>
+      <c r="N105" s="90">
+        <v>6</v>
+      </c>
+      <c r="O105" s="90">
+        <v>-18678.22</v>
+      </c>
+    </row>
+    <row r="106" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L106" s="89">
+        <v>101</v>
+      </c>
+      <c r="M106" s="90">
+        <v>0</v>
+      </c>
+      <c r="N106" s="90">
+        <v>7</v>
+      </c>
+      <c r="O106" s="90">
+        <v>-18651.22</v>
+      </c>
+    </row>
+    <row r="107" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L107" s="89">
+        <v>85</v>
+      </c>
+      <c r="M107" s="90">
+        <v>1</v>
+      </c>
+      <c r="N107" s="90">
+        <v>7</v>
+      </c>
+      <c r="O107" s="90">
+        <v>-18655.5</v>
+      </c>
+    </row>
+    <row r="108" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L108" s="89">
+        <v>60</v>
+      </c>
+      <c r="M108" s="90">
+        <v>2</v>
+      </c>
+      <c r="N108" s="90">
+        <v>7</v>
+      </c>
+      <c r="O108" s="90">
+        <v>-18659.77</v>
+      </c>
+    </row>
+    <row r="109" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L109" s="89">
+        <v>32</v>
+      </c>
+      <c r="M109" s="90">
+        <v>3</v>
+      </c>
+      <c r="N109" s="90">
+        <v>7</v>
+      </c>
+      <c r="O109" s="90">
+        <v>-18665.7</v>
+      </c>
+    </row>
+    <row r="110" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L110" s="89">
+        <v>42</v>
+      </c>
+      <c r="M110" s="90">
+        <v>4</v>
+      </c>
+      <c r="N110" s="90">
+        <v>7</v>
+      </c>
+      <c r="O110" s="90">
+        <v>-18663.830000000002</v>
+      </c>
+    </row>
+    <row r="111" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L111" s="89">
+        <v>17</v>
+      </c>
+      <c r="M111" s="90">
+        <v>5</v>
+      </c>
+      <c r="N111" s="90">
+        <v>7</v>
+      </c>
+      <c r="O111" s="90">
+        <v>-18673.919999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L112" s="89">
+        <v>12</v>
+      </c>
+      <c r="M112" s="90">
+        <v>6</v>
+      </c>
+      <c r="N112" s="90">
+        <v>7</v>
+      </c>
+      <c r="O112" s="90">
+        <v>-18675.29</v>
+      </c>
+    </row>
+    <row r="113" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L113" s="89">
+        <v>9</v>
+      </c>
+      <c r="M113" s="90">
+        <v>7</v>
+      </c>
+      <c r="N113" s="90">
+        <v>7</v>
+      </c>
+      <c r="O113" s="90">
+        <v>-18676.39</v>
+      </c>
+    </row>
+    <row r="114" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L114" s="89">
+        <v>10</v>
+      </c>
+      <c r="M114" s="90">
+        <v>8</v>
+      </c>
+      <c r="N114" s="90">
+        <v>7</v>
+      </c>
+      <c r="O114" s="90">
+        <v>-18676.3</v>
+      </c>
+    </row>
+    <row r="115" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L115" s="89">
+        <v>14</v>
+      </c>
+      <c r="M115" s="90">
+        <v>9</v>
+      </c>
+      <c r="N115" s="90">
+        <v>7</v>
+      </c>
+      <c r="O115" s="90">
+        <v>-18674.57</v>
+      </c>
+    </row>
+    <row r="116" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L116" s="89">
+        <v>5</v>
+      </c>
+      <c r="M116" s="90">
+        <v>10</v>
+      </c>
+      <c r="N116" s="90">
+        <v>7</v>
+      </c>
+      <c r="O116" s="90">
+        <v>-18676.98</v>
+      </c>
+    </row>
+    <row r="117" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L117" s="89">
+        <v>61</v>
+      </c>
+      <c r="M117" s="90">
+        <v>0</v>
+      </c>
+      <c r="N117" s="90">
+        <v>8</v>
+      </c>
+      <c r="O117" s="90">
+        <v>-18659.759999999998</v>
+      </c>
+    </row>
+    <row r="118" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L118" s="89">
+        <v>66</v>
+      </c>
+      <c r="M118" s="90">
+        <v>1</v>
+      </c>
+      <c r="N118" s="90">
+        <v>8</v>
+      </c>
+      <c r="O118" s="90">
+        <v>-18659.34</v>
+      </c>
+    </row>
+    <row r="119" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L119" s="89">
+        <v>43</v>
+      </c>
+      <c r="M119" s="90">
+        <v>2</v>
+      </c>
+      <c r="N119" s="90">
+        <v>8</v>
+      </c>
+      <c r="O119" s="90">
+        <v>-18663.259999999998</v>
+      </c>
+    </row>
+    <row r="120" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L120" s="89">
+        <v>39</v>
+      </c>
+      <c r="M120" s="90">
+        <v>3</v>
+      </c>
+      <c r="N120" s="90">
+        <v>8</v>
+      </c>
+      <c r="O120" s="90">
+        <v>-18664.21</v>
+      </c>
+    </row>
+    <row r="121" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L121" s="89">
+        <v>80</v>
+      </c>
+      <c r="M121" s="90">
+        <v>4</v>
+      </c>
+      <c r="N121" s="90">
+        <v>8</v>
+      </c>
+      <c r="O121" s="90">
+        <v>-18656.02</v>
+      </c>
+    </row>
+    <row r="122" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L122" s="89">
+        <v>64</v>
+      </c>
+      <c r="M122" s="90">
+        <v>5</v>
+      </c>
+      <c r="N122" s="90">
+        <v>8</v>
+      </c>
+      <c r="O122" s="90">
+        <v>-18659.599999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L123" s="89">
+        <v>21</v>
+      </c>
+      <c r="M123" s="90">
+        <v>6</v>
+      </c>
+      <c r="N123" s="90">
+        <v>8</v>
+      </c>
+      <c r="O123" s="90">
+        <v>-18672.810000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L124" s="89">
+        <v>11</v>
+      </c>
+      <c r="M124" s="90">
+        <v>7</v>
+      </c>
+      <c r="N124" s="90">
+        <v>8</v>
+      </c>
+      <c r="O124" s="90">
+        <v>-18675.82</v>
+      </c>
+    </row>
+    <row r="125" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L125" s="89">
+        <v>27</v>
+      </c>
+      <c r="M125" s="90">
+        <v>8</v>
+      </c>
+      <c r="N125" s="90">
+        <v>8</v>
+      </c>
+      <c r="O125" s="90">
+        <v>-18671.71</v>
+      </c>
+    </row>
+    <row r="126" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L126" s="89">
+        <v>26</v>
+      </c>
+      <c r="M126" s="90">
+        <v>9</v>
+      </c>
+      <c r="N126" s="90">
+        <v>8</v>
+      </c>
+      <c r="O126" s="90">
+        <v>-18671.98</v>
+      </c>
+    </row>
+    <row r="127" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L127" s="89">
+        <v>23</v>
+      </c>
+      <c r="M127" s="90">
+        <v>10</v>
+      </c>
+      <c r="N127" s="90">
+        <v>8</v>
+      </c>
+      <c r="O127" s="90">
+        <v>-18672.41</v>
+      </c>
+    </row>
+    <row r="128" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L128" s="89">
+        <v>55</v>
+      </c>
+      <c r="M128" s="90">
+        <v>0</v>
+      </c>
+      <c r="N128" s="90">
+        <v>9</v>
+      </c>
+      <c r="O128" s="90">
+        <v>-18660.87</v>
+      </c>
+    </row>
+    <row r="129" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L129" s="89">
+        <v>65</v>
+      </c>
+      <c r="M129" s="90">
+        <v>1</v>
+      </c>
+      <c r="N129" s="90">
+        <v>9</v>
+      </c>
+      <c r="O129" s="90">
+        <v>-18659.37</v>
+      </c>
+    </row>
+    <row r="130" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L130" s="89">
+        <v>73</v>
+      </c>
+      <c r="M130" s="90">
+        <v>2</v>
+      </c>
+      <c r="N130" s="90">
+        <v>9</v>
+      </c>
+      <c r="O130" s="90">
+        <v>-18657.740000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L131" s="89">
+        <v>58</v>
+      </c>
+      <c r="M131" s="90">
+        <v>3</v>
+      </c>
+      <c r="N131" s="90">
+        <v>9</v>
+      </c>
+      <c r="O131" s="90">
+        <v>-18660.32</v>
+      </c>
+    </row>
+    <row r="132" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L132" s="89">
+        <v>33</v>
+      </c>
+      <c r="M132" s="90">
+        <v>4</v>
+      </c>
+      <c r="N132" s="90">
+        <v>9</v>
+      </c>
+      <c r="O132" s="90">
+        <v>-18665.63</v>
+      </c>
+    </row>
+    <row r="133" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L133" s="89">
+        <v>29</v>
+      </c>
+      <c r="M133" s="90">
+        <v>5</v>
+      </c>
+      <c r="N133" s="90">
+        <v>9</v>
+      </c>
+      <c r="O133" s="90">
+        <v>-18669.330000000002</v>
+      </c>
+    </row>
+    <row r="134" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L134" s="89">
+        <v>19</v>
+      </c>
+      <c r="M134" s="90">
+        <v>6</v>
+      </c>
+      <c r="N134" s="90">
+        <v>9</v>
+      </c>
+      <c r="O134" s="90">
+        <v>-18673.46</v>
+      </c>
+    </row>
+    <row r="135" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L135" s="89">
+        <v>6</v>
+      </c>
+      <c r="M135" s="90">
+        <v>7</v>
+      </c>
+      <c r="N135" s="90">
+        <v>9</v>
+      </c>
+      <c r="O135" s="90">
+        <v>-18676.68</v>
+      </c>
+    </row>
+    <row r="136" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L136" s="89">
+        <v>24</v>
+      </c>
+      <c r="M136" s="90">
+        <v>8</v>
+      </c>
+      <c r="N136" s="90">
+        <v>9</v>
+      </c>
+      <c r="O136" s="90">
+        <v>-18672.349999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L137" s="89">
+        <v>121</v>
+      </c>
+      <c r="M137" s="90">
+        <v>9</v>
+      </c>
+      <c r="N137" s="90">
+        <v>9</v>
+      </c>
+      <c r="O137" s="91" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="138" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L138" s="89">
+        <v>16</v>
+      </c>
+      <c r="M138" s="90">
+        <v>10</v>
+      </c>
+      <c r="N138" s="90">
+        <v>9</v>
+      </c>
+      <c r="O138" s="90">
+        <v>-18673.919999999998</v>
+      </c>
+    </row>
+    <row r="139" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L139" s="89">
+        <v>62</v>
+      </c>
+      <c r="M139" s="90">
+        <v>0</v>
+      </c>
+      <c r="N139" s="90">
+        <v>10</v>
+      </c>
+      <c r="O139" s="90">
+        <v>-18659.72</v>
+      </c>
+    </row>
+    <row r="140" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L140" s="89">
+        <v>72</v>
+      </c>
+      <c r="M140" s="90">
+        <v>1</v>
+      </c>
+      <c r="N140" s="90">
+        <v>10</v>
+      </c>
+      <c r="O140" s="90">
+        <v>-18657.75</v>
+      </c>
+    </row>
+    <row r="141" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L141" s="89">
+        <v>53</v>
+      </c>
+      <c r="M141" s="90">
+        <v>2</v>
+      </c>
+      <c r="N141" s="90">
+        <v>10</v>
+      </c>
+      <c r="O141" s="90">
+        <v>-18660.900000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L142" s="89">
+        <v>38</v>
+      </c>
+      <c r="M142" s="90">
+        <v>3</v>
+      </c>
+      <c r="N142" s="90">
+        <v>10</v>
+      </c>
+      <c r="O142" s="90">
+        <v>-18664.98</v>
+      </c>
+    </row>
+    <row r="143" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L143" s="89">
+        <v>15</v>
+      </c>
+      <c r="M143" s="90">
+        <v>4</v>
+      </c>
+      <c r="N143" s="90">
+        <v>10</v>
+      </c>
+      <c r="O143" s="90">
+        <v>-18674.36</v>
+      </c>
+    </row>
+    <row r="144" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L144" s="89">
+        <v>68</v>
+      </c>
+      <c r="M144" s="90">
+        <v>5</v>
+      </c>
+      <c r="N144" s="90">
+        <v>10</v>
+      </c>
+      <c r="O144" s="90">
+        <v>-18658.38</v>
+      </c>
+    </row>
+    <row r="145" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L145" s="89">
+        <v>4</v>
+      </c>
+      <c r="M145" s="90">
+        <v>6</v>
+      </c>
+      <c r="N145" s="90">
+        <v>10</v>
+      </c>
+      <c r="O145" s="90">
+        <v>-18677.900000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L146" s="89">
+        <v>2</v>
+      </c>
+      <c r="M146" s="90">
+        <v>7</v>
+      </c>
+      <c r="N146" s="90">
+        <v>10</v>
+      </c>
+      <c r="O146" s="90">
+        <v>-18679.22</v>
+      </c>
+    </row>
+    <row r="147" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L147" s="89">
+        <v>25</v>
+      </c>
+      <c r="M147" s="90">
+        <v>8</v>
+      </c>
+      <c r="N147" s="90">
+        <v>10</v>
+      </c>
+      <c r="O147" s="90">
+        <v>-18672.189999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L148" s="89">
+        <v>28</v>
+      </c>
+      <c r="M148" s="90">
+        <v>9</v>
+      </c>
+      <c r="N148" s="90">
+        <v>10</v>
+      </c>
+      <c r="O148" s="90">
+        <v>-18669.37</v>
+      </c>
+    </row>
+    <row r="149" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L149" s="89">
+        <v>1</v>
+      </c>
+      <c r="M149" s="90">
+        <v>10</v>
+      </c>
+      <c r="N149" s="90">
+        <v>10</v>
+      </c>
+      <c r="O149" s="90">
+        <v>-18687.189999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F8:P15">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC173B9D-CB1C-4874-95CF-B65F023FBAB4}">
   <dimension ref="A2:L16"/>
   <sheetViews>
@@ -23787,7 +26834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C52051E-2886-499F-8074-2418E2070EA6}">
   <dimension ref="A2:K5"/>
   <sheetViews>
@@ -23842,7 +26889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3942CE-A429-4A1C-9D03-2C5F6741F7CE}">
   <dimension ref="A2:K5"/>
   <sheetViews>
@@ -23897,7 +26944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C72ED3-B379-496A-B42F-0D735D161E8A}">
   <dimension ref="A2:K5"/>
   <sheetViews>
@@ -23952,12 +26999,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED014705-0ED4-40BB-AB15-83736C5D6F50}">
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F8" sqref="F8:P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24413,7 +27460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDFE60F-9D1C-43B3-85DE-06D2365001F7}">
   <dimension ref="A2:X13"/>
   <sheetViews>
@@ -24685,520 +27732,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A8F1BD-CFB8-4CA7-B34E-309ED40F48C0}">
-  <dimension ref="A2:K5"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="2" max="2" width="0.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="0.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:11" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C36FB67-9F8C-42D2-AA9F-01863EB0DC79}">
-  <dimension ref="A1:P18"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="1.7109375" customWidth="1"/>
-    <col min="4" max="4" width="0.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="16" width="8.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <f>F1+1</f>
-        <v>1</v>
-      </c>
-      <c r="H1">
-        <f>G1+1</f>
-        <v>2</v>
-      </c>
-      <c r="I1">
-        <f>H1+1</f>
-        <v>3</v>
-      </c>
-      <c r="J1">
-        <f>I1+1</f>
-        <v>4</v>
-      </c>
-      <c r="K1">
-        <f>J1+1</f>
-        <v>5</v>
-      </c>
-      <c r="L1">
-        <f>K1+1</f>
-        <v>6</v>
-      </c>
-      <c r="P1">
-        <f>L1+1</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-    </row>
-    <row r="5" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D6" s="6"/>
-      <c r="E6" s="92" t="s">
-        <v>106</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="93"/>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="94" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" s="101" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" s="100" t="s">
-        <v>104</v>
-      </c>
-      <c r="I8" s="100" t="s">
-        <v>104</v>
-      </c>
-      <c r="J8" s="100" t="s">
-        <v>104</v>
-      </c>
-      <c r="K8" s="100" t="s">
-        <v>104</v>
-      </c>
-      <c r="L8" s="100" t="s">
-        <v>104</v>
-      </c>
-      <c r="M8" s="100" t="s">
-        <v>103</v>
-      </c>
-      <c r="N8" s="100" t="s">
-        <v>104</v>
-      </c>
-      <c r="O8" s="100" t="s">
-        <v>104</v>
-      </c>
-      <c r="P8" s="99" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="94" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" s="95" t="s">
-        <v>104</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="P9" s="98" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E10" s="94" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="95" t="s">
-        <v>104</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="P10" s="98" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E11" s="94" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="I11" s="95" t="s">
-        <v>104</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="P11" s="98" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E12" s="94" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="J12" s="95" t="s">
-        <v>104</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="N12" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="P12" s="98" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E13" s="94" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="K13" s="95" t="s">
-        <v>104</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="P13" s="98" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E14" s="94" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="L14" s="95" t="s">
-        <v>104</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="N14" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="P14" s="98" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="94" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="M15" s="95" t="s">
-        <v>104</v>
-      </c>
-      <c r="N15" s="96" t="s">
-        <v>104</v>
-      </c>
-      <c r="O15" s="96" t="s">
-        <v>104</v>
-      </c>
-      <c r="P15" s="97" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="3" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D17" s="29"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-    </row>
-    <row r="18" spans="4:16" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>